--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="219">
   <si>
     <t>LastUpdate</t>
   </si>
@@ -40,7 +40,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t>2021-05-05 20:16:00</t>
+    <t>2021-05-06 09:33:00</t>
   </si>
   <si>
     <t>2020-10-29 09:32:00</t>
@@ -247,7 +247,16 @@
     <t>May I enter this country without being subject to a mandatory quarantine?</t>
   </si>
   <si>
+    <t>National website with coronavirus related information for TOURISM</t>
+  </si>
+  <si>
     <t>Restrictions on the provision of tourist services at national or sub-national/regional level</t>
+  </si>
+  <si>
+    <t>National website with COVID-related inofrmation for TRANSPORT</t>
+  </si>
+  <si>
+    <t>National website about COVID situation</t>
   </si>
   <si>
     <t>May I enter this country by road?</t>
@@ -288,6 +297,9 @@
     <t>&lt;p&gt;Austrian citizens, Austrian residents and residents from EU Members States and Schengen associated countries arriving from a high-risk area are obliged to provide a &lt;a href="https://www.ris.bka.gv.at/Dokumente/BgblAuth/BGBLA_2020_II_263/COO_2026_100_2_1752893.pdfsig" target="_blank" rel="noopener noreferrer"&gt;medical certificate&lt;/a&gt; with a negative result to a COVID-19 PCR test, performed no longer than 72 hours before arrival.&lt;/p&gt;&lt;p&gt;An updated list of high risk areas is available at the &lt;strong&gt;&lt;a href="https://www.sozialministerium.at/Informationen-zum-Coronavirus/Coronavirus---Haeufig-gestellte-Fragen/FAQ--Reisen-und-Tourismus.html" target="_blank" rel="noopener"&gt;Austrian Health Ministry website&lt;/a&gt;&lt;/strong&gt; (in German)&lt;/p&gt;&lt;p&gt;If you were unable to get tested before entering Austria, you are required to get tested within 48 hours after arriving, and you have to self-quarantine until your test results are available.&lt;/p&gt;&lt;p&gt;Third-country nationals travelling from within the Schengen area have to provide a medical certificate proving a negative COVID-19 test result AND are obliged to undergo a 10-day self-quarantine.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;From 19.12.2020 to 10.01.2021&lt;/strong&gt;, the definition of a "risk area" changes to include every country with a 14-day incidence rate (COVID-19 cases per 100 000 people) over 100. Anybody entering from such risk areas must quarantine for 10 days upon arrival. After 5 days of quarantine at the earliest, you may take a PCR COVID test to shorten your quarantine. &lt;a href="https://www.austria.info/en/service-and-facts/coronavirus-information/entry-regulations" target="_blank" rel="noopener"&gt;New entry regulations.&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://www.austria.info/"&gt;Tourism Austria&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Bulgaria adopts its own national classification of risk areas, hence travel restrictions for Bulgaria are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt;All travellers, regardless of their citizenship and the country of origin, are allowed entry upon presentation of one of the following documents:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;a certificate of vaccination, with the last dose of vaccine administered at least 14 days before entry&lt;/li&gt;&lt;li&gt;a document showing a positive test result (PCR or antigen test) for people who recovered from Covid-19 in the period between 15 and 180 days before entry.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Bulgarian citizens, citizens of EU member states, Schengen countries and their family members are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 (PCR or antigen) test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;72 hours (PCR) or 48 hours (antigen test) before departure&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Bulgarian citizens, permanent or long-term residents in Bulgaria and their family members, who do not present the negative result of a COVID-19 test, must complete a &lt;strong&gt;10-day mandatory quarantine&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The quarantine period may be ended upon the presentation of a document showing the negative result of a COVID-19 test performed within 24 hours from the entry.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.tourism.government.bg/sites/tourism.government.bg/files/documents/2020-05/deklaraciya_za_putuvane_na_sobstven_risk_en-2.pdf" target="_blank" rel="noopener"&gt;Self-risk travel declaration&lt;/a&gt; available in 8 languages (BG / EN / DE / RU / FR / RO / GR / RS)&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://coronavirus.bg/bg/965" target="_blank" rel="noopener"&gt;Order № RD-01-278 of 29.04.2021 on the rules and conditions for entry into the territory of Bulgaria, in force from 1 May&lt;/a&gt; (in Bulgarian)&lt;/p&gt;&lt;p&gt;&lt;a href="https://bulgariatravel.org/en/useful/practical-information-for-tourists-covid-19/" target="_blank" rel="noopener"&gt;Practical information for tourists&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact Point for Bulgaria:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://coronavirus.bg/bg/contacts" target="_blank" rel="noopener"&gt;Important telephone numbers and contacts&lt;/a&gt; (in Bulgarian)&lt;/p&gt;</t>
   </si>
   <si>
@@ -297,7 +309,10 @@
     <t>Tourism resumes on 15 June 2020. The extraordinary epidemic situation is prolonged until 30 September 2020.</t>
   </si>
   <si>
-    <t>&lt;p class="border"&gt;Croatia applies the commonly agreed EU "Traffic Lights" approach to travel restrictions from/to the EU Member States and Schengen Associated Countries.&lt;/p&gt;&lt;p&gt;Travellers, regardless of their citizenship, coming from EU Member States or Schengen Associated countries and regions classified as "green" will be allowed entry in Croatia with no restrictions.&lt;/p&gt;&lt;p&gt;It is required that travellers show no signs of COVID-19 disease and that they have not been in close contact with an infected person.&lt;/p&gt;&lt;p&gt;All travellers aged above 7 who, regardless of their citizenship, arrive from countries or regions that are NOT classified as "green", have to provide one of the following documents:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;negative PCR test or &lt;/strong&gt;&lt;a href="https://mup.gov.hr/uzg-covid/english/286212#BAT" target="_blank"&gt;&lt;strong&gt;rapid antigen test - RAT&lt;/strong&gt;&lt;/a&gt; for SARS-CoV-2 (the RAT test must be listed in the &lt;a href="https://ec.europa.eu/health/sites/health/files/preparedness_response/docs/covid-19_rat_common-list_en.pdf" target="_blank"&gt;common list of rapid antigen tests recognized by the Member States of the European Union&lt;/a&gt;). If the RAT test was made abroad, the manufacturer and/or the commercial name of the test must be visible, and the test must be issued by a health institution / laboratory and signed / confirmed by a doctor. If otherwise, it will not be accepted as credible for entering the Republic of Croatia. The results of the above tests &lt;strong&gt;must not be older than 48 hours&lt;/strong&gt; (counting from the time of taking the swab to arriving at the border crossing point);&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;vaccination certificate &lt;/strong&gt;proving the second dose of COVID-19 vaccine was received more than 14 days ago or, in the case of a vaccine received in a single dose, a certificate of receipt of a single dose received more than 14 days before crossing the state border;&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;If a person has&lt;strong&gt; recovered COVID-19 &lt;/strong&gt;and has a medical certificate or a positive PCR or rapid antigen test (RAT) and has been vaccinated with at least one dose of vaccine after recovery, the exemption from presenting a negative PCR or rapid antigen test - RAT or self-isolation is extended until 5 months after vaccination;&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;positive PCR or &lt;/strong&gt;&lt;a href="https://mup.gov.hr/uzg-covid/english/286212#BAT" target="_blank"&gt;&lt;strong&gt;rapid antigen test&lt;/strong&gt;&lt;/a&gt;&lt;strong&gt;, &lt;/strong&gt;confirming that the holder recovered from the SARS-CoV-2 virus infection, performed in the previous 180 days and older than 11 days from the date of arrival at the border crossing point, or presentation of a certificate of recovery issued by a physician;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;In case none of the above documents is provided, &lt;strong&gt;perform a PCR or &lt;/strong&gt;&lt;a href="https://mup.gov.hr/uzg-covid/english/286212#BAT" target="_blank"&gt;&lt;strong&gt;rapid antigen testing&lt;/strong&gt;&lt;/a&gt; &lt;strong&gt;for SARS-CoV-2 immediately upon arrival in the Republic of Croatia &lt;/strong&gt;(at their own expense), with the obligation to stay in self-isolation until the arrival of a negative test result. If testing cannot be performed, a measure of self-isolation is determined for a period of ten (10) days.&lt;/p&gt;&lt;p&gt;Some categories of people are &lt;a href="https://mup.gov.hr/uzg-covid/english/286212" target="_blank"&gt;exempt&lt;/a&gt; from previously mentioned requirements.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers, regardless of their citizenship, arriving from countries or regions that are not classified as "green", and not providing a pre-departure negative PCR or rapid antigen test, must remain in quarantine until they receive the result of a test taken in Croatia.&lt;/p&gt;&lt;p&gt;Travellers arriving from a country or region classified as "green", who transit through high-risk countries or regions without any delay, will not be required to show a negative test result for SARS-CoV-2, nor stay in quarantine, as long as they can prove this travelling through.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Can people applying for residency/work in Croatia, including digital nomads, enter Croatia without being subject to extraordinary restrictions?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Persons for whom a positive decision of the competent authority has been made, based on their application for residence / work, including digital nomads, are obliged to present credible documentation upon entering the Republic of Croatia in order to prove the reasons for the exemption of having one of the stated test results / having to self-isolate.&lt;/p&gt;&lt;p&gt;When staying in the Republic of Croatia, they are obliged to follow the general and special recommendations and instructions of the Croatian Institute of Public Health. More about the work of digital nomads: &lt;a href="https://mup.gov.hr/aliens-281621/stay-and-work/temporary-stay-of-digital-nomads/286833" target="_blank"&gt;request for temporary stay&lt;/a&gt; and &lt;a href="https://croatia.hr/en-GB/travel-info/croatia-your-new-office" target="_blank"&gt;Croatia &amp;ndash; your new office&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;For a faster border crossing it is recommended previous to departure to fill out the form at &lt;a href="https://entercroatia.mup.hr/" target="_blank"&gt;ENTERCROATIA&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://mup.gov.hr/uzg-covid/english/286212" target="_blank"&gt;Conditions of entry into the Republic of Croatia&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.koronavirus.hr/en" target="_blank" rel="noopener"&gt;Koronavirus.hr&lt;/a&gt;&lt;br /&gt;&lt;a href="https://mup.gov.hr/en" target="_blank" rel="noopener"&gt;Ministry of the Interior&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;a href="http://www.tourism.government.bg/bg/taxonomy/term/204" target="_blank" rel="noopener"&gt;Tourism Bulgaria&lt;/a&gt; (in Bulgarian)&lt;/p&gt;&lt;p&gt;&lt;a href="http://www.tourism.government.bg/en/kategorii/covid-19" target="_blank" rel="noopener"&gt;Tourism Bulgaria&lt;/a&gt; (in English)&lt;/p&gt;&lt;p&gt;&lt;a href="https://bulgariatravel.org/en/useful/practical-information-for-tourists-in-the-covid-19/" target="_blank" rel="noopener"&gt;Bulgaria travel&lt;/a&gt; (available in English, German, Russian and Bulgarian)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="border"&gt;Croatia applies the commonly agreed EU "Traffic Lights" approach to travel restrictions from/to the EU Member States and Schengen Associated Countries.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Arriving from countries or regions classified as "green"&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers - regardless of their citizenship - arriving from EU Member States or Schengen Associated countries / regions classified as "&lt;strong&gt;green&lt;/strong&gt;" can enter Croatia without being subject to any isolation or test requirement.&lt;/p&gt;&lt;p&gt;For these travellers, testing and quarantine are not required also in case of transit through high-risk countries or regions.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Arriving from countries or regions NOT classified as "green"&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers - regardless of their citizenship - arriving from EU Member States or Schengen Associated countries / regions NOT classified as "&lt;strong&gt;green&lt;/strong&gt;" can enter Croatia without being subject to any isolation or test requirement in the following cases:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Full vaccination&lt;/strong&gt;&lt;br /&gt;A vaccination certificate, proving that the second dose of COVID-19 vaccine (or single dose for Johnson &amp;amp; Johnson) was received more than 14 days before crossing the state border, must be presented;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Recovery from COVID-19 in the last 6 months&lt;br /&gt;&lt;/strong&gt;A Positive result to a COVID-19 test (PCR or &lt;a href="https://mup.gov.hr/uzg-covid/english/286212#BAT" target="_blank"&gt;rapid antigen test&lt;/a&gt;) performed in the previous 180 days and&lt;strong&gt; older than 11 days&lt;/strong&gt; from the date of arrival at the border crossing point, or a certificate issued by a physician confirming that the holder has recovered from the SARS-CoV-2 virus infection, must be presented.&lt;br /&gt;If a person has recovered from COVID-19 and has a medical certificate or a positive test, and has been vaccinated with at least one dose of vaccine after recovery, the exemption from testing and isolation is extended until &lt;strong&gt;5 months after vaccination&lt;/strong&gt;.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;It is required that travellers show no signs of COVID-19 disease and that they have not been in close contact with an infected person.&lt;/p&gt;&lt;p&gt;All other travellers aged above 7 have to provide a &lt;strong&gt;negative COVID-19 test &lt;/strong&gt;(PCR or &lt;a href="https://mup.gov.hr/uzg-covid/english/286212#BAT" target="_blank"&gt;rapid antigen test - RAT&lt;/a&gt;). &lt;br /&gt;The RAT test, to be valid, must be listed in the &lt;a href="https://ec.europa.eu/health/sites/health/files/preparedness_response/docs/covid-19_rat_common-list_en.pdf" target="_blank"&gt;common list of rapid antigen tests recognised by the Member States of the European Union&lt;/a&gt;). If the RAT test was made abroad, the manufacturer and/or the commercial name of the test must be visible, and the test must be issued by a health institution / laboratory and signed / confirmed by a doctor. The results of the above tests &lt;strong&gt;must not be older than 48 hours&lt;/strong&gt; (counting from the time of taking the swab to arriving at the border crossing point).&lt;/p&gt;&lt;p&gt;In lack of a valid COVID-19 test, travellers will have to immediately perform, upon arrival in Croatia, a PCR or rapid antigen test at their own expenses, with the obligation to stay in &lt;strong&gt;self-isolation until a negative test result&lt;/strong&gt;. If testing cannot be performed, a &lt;strong&gt;10-day quarantine&lt;/strong&gt; is imposed.&lt;/p&gt;&lt;p&gt;Some categories of people are &lt;a href="https://mup.gov.hr/uzg-covid/english/286212" target="_blank"&gt;exempt&lt;/a&gt; from previously mentioned requirements.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Provisions for people applying for residency/work in Croatia&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Persons who, following their application for residence / work in Croatia (including digital nomads), have received a positive decision of the competent authority, are obliged to present credible documentation upon entering Croatia to prove the reasons for their exemption to COVID-19 testing or isolation. During their stay in Croatia, they are obliged to follow the general and special recommendations and instructions of the Croatian Institute of Public Health.&lt;/p&gt;&lt;p&gt;Find out more:&lt;br /&gt;&lt;a href="https://mup.gov.hr/aliens-281621/stay-and-work/temporary-stay-of-digital-nomads/286833" target="_blank"&gt;Request for temporary stay&lt;/a&gt;&lt;br /&gt;&lt;a href="https://croatia.hr/en-GB/travel-info/croatia-your-new-office" target="_blank"&gt;Croatia &amp;ndash; your new office&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;For a faster border crossing, it is recommended to fill out the form at &lt;a href="https://entercroatia.mup.hr/" target="_blank"&gt;ENTERCROATIA&lt;/a&gt; prior to departure.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://mup.gov.hr/uzg-covid/english/286212" target="_blank"&gt;Conditions of entry into the Republic of Croatia&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.koronavirus.hr/en" target="_blank"&gt;Koronavirus.hr&lt;/a&gt;&lt;br /&gt;&lt;a href="https://mup.gov.hr/en" target="_blank" rel="noopener"&gt;Ministry of the Interior&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Third-country nationals are not subject to a 14 day quarantine / self-isolation measure if they present a negative PCR result of a nasal and throat swab for SARS-Cov-2 at the border crossing point, which is not older than 48 hours (counting from the time of taking the swab to arriving at the border crossing point). If third-country nationals have a test older than 48 hours when entering Croatia, they will be allowed to enter Croatia, however, they will be obligated to self-isolate and re-test themselves in Croatia at their own expense. Persons who do not present a negative PCR result are subject to a mandatory 14-day quarantine / self-isolation measure.</t>
@@ -309,7 +324,10 @@
     <t xml:space="preserve">Third-country nationals who do not present a negative PCR result of a nasal and throat swab for SARS-Cov-2 at the border crossing point, which is not older than 48 hours, are subject to a 14 day quarantine. </t>
   </si>
   <si>
-    <t>&lt;p class="border"&gt;Cyprus has introduced a traffic light system of high, medium and low-risk countries.&amp;nbsp;It is based on the data and criteria communicated by the European Centre for Disease Prevention and Control (ECDC) every Thursday. Each country is given a colour code &lt;strong&gt;(red, orange, green)&lt;/strong&gt;. The measures applicable to travel to Cyprus depend on the colour code assigned to each country.&lt;br /&gt;&lt;br /&gt;Find out the &lt;a href="https://cyprusflightpass.gov.cy/en/country-categories" target="_blank" rel="noopener"&gt;current colour code assigned by Cyprus to each country&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;As of &lt;strong&gt;1 April 2021&lt;/strong&gt;, passengers from countries of the &lt;strong&gt;"Green Category"&lt;/strong&gt; are not required to hold a Covid-19 test certificate and to self-isolate.&lt;/p&gt;&lt;p&gt;Travellers from &lt;strong&gt;"Orange Category"&lt;/strong&gt; countries are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Additionally, the following categories may be tested upon arrival:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Cypriot citizens and their family members (spouses, underage children and parents);&lt;/li&gt;&lt;li&gt;Persons legally residing in Cyprus;&lt;/li&gt;&lt;li&gt;Persons entitled to enter the Republic under the Vienna Convention;&lt;/li&gt;&lt;li&gt;Persons, irrespective of nationality, whose country of residence does not provide a laboratory testing service.&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;Travellers from &lt;strong&gt;"Red Category"&lt;/strong&gt; countries are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;. Additionally, these travellers are subject to a &lt;strong&gt;second test upon their arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The following categories of passengers from a "Red Category" country may enter Cyprus after having taken, at their own expense, only a test upon their arrival:&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Cypriot citizens and their family members (spouses, underage children and parents);&lt;/li&gt;&lt;li&gt;Persons legally residing in Cyprus;&lt;/li&gt;&lt;li&gt;Persons entitled to enter the Republic under the Vienna Convention.&lt;/li&gt;&lt;/ol&gt;&lt;p class="border"&gt;As of 1 April 2021, all passengers holding a &lt;strong&gt;vaccination certificate&lt;/strong&gt; from the Republic of Cyprus are not required to undergo a Covid-19 test upon arrival and to self-isolate.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from "Orange" and "Red" countries shall remain in mandatory self-isolation until they receive the test result.&lt;/p&gt;&lt;p&gt;People from "Red" countries falling within the categories 1-3 above must remain in mandatory self-isolation for 72 hours and, after the end of the 72 hours, they must undergo another PCR test, at their own expenses. If the last test is negative, isolation is ended.&lt;/p&gt;&lt;p&gt;The test result must be sent to the following email address: &lt;a href="mailto:monada@mphs.moh.gov.cy"&gt;monada@mphs.moh.gov.cy&lt;/a&gt;&lt;/p&gt;&lt;p&gt;All travellers who test positive should be placed in compulsory confinement for &lt;strong&gt;14 days&lt;/strong&gt; and follow the medical protocol of the Ministry of Health.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All passengers have to submit, within 24 hours before starting their journey, all the information and documents required to obtain the &lt;a href="https://www.cyprusflightpass.gov.cy/" target="_blank" rel="noopener"&gt;CyprusFlightPass&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;The use of the platform is mandatory for anyone who wishes to travel to Cyprus. Only in case of technical problems or scheduled maintenance of the electronic platform, passengers will be allowed to fill in the required form in writing.&lt;/p&gt;&lt;p&gt;The download forms for passengers travelling to Cyprus can be found at &lt;a href="https://cyprusflightpass.gov.cy/en/download-forms" target="_blank" rel="noopener"&gt;https://cyprusflightpass.gov.cy/en/download-forms&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://cyprusflightpass.gov.cy/en/country-categories" target="_blank" rel="noopener"&gt;Updated information on Country Categories&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.pio.gov.cy/coronavirus/uploads/03052021_epidemiological_assessmentEN.pdf" target="_blank" rel="noopener"&gt;Epidemiological risk assessment (03/05/2021)&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact point for Cyprus:&lt;br /&gt;&lt;/strong&gt;A Covid-19 call centre is available from Monday to Sunday (8:00 - 20:00) at 1474. This service provides direct, timely and comprehensive information regarding all governmental initiatives related to COVID-19.&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;a href="https://croatia.hr/en-GB/coronavirus-2019-ncov-q-and-a" target="_blank"&gt;CROATIA.HR&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.safestayincroatia.hr/en" target="_blank"&gt;SAFESTAYINCROATIA.HR&lt;/a&gt; (safety measures for various tourist services)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="border"&gt;Cyprus implements a traffic light system of high, medium and low-risk countries. It is based on the data and criteria communicated every Thursday by the European Centre for Disease Prevention and Control (ECDC). Each country is given a colour code &lt;strong&gt;(red, orange, green, gray)&lt;/strong&gt;. The measures applicable to travel to Cyprus depend on the &lt;a href="https://cyprusflightpass.gov.cy/en/country-categories" target="_blank"&gt;colour code assigned to each country&lt;/a&gt;.&lt;/p&gt;&lt;p class="border"&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Arriving from countries classified as "green"&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers arriving from countries classified as "&lt;strong&gt;green&lt;/strong&gt;" can enter Cyprus without being subject to any isolation or test requirement.&lt;/p&gt;&lt;p&gt;For these travellers, testing and quarantine are not required also in case of transit through high-risk countries, provided that no overnight stay has taken place (as well as no stay has taken place in such countries in the last 14 days).&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Arriving from countries NOT classified as "green"&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers arriving from countries NOT classified as "&lt;strong&gt;green&lt;/strong&gt;" can enter Cyprus without being subject to any isolation or test requirement in case they have been &lt;strong&gt;fully vaccinated &lt;/strong&gt;in &lt;strong&gt;Cyprus&lt;/strong&gt;, &lt;strong&gt;Israel&lt;/strong&gt; or the &lt;strong&gt;United Kingdom&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;These passengers, holding a valid vaccination certificate from the countries referred above, regardless of their nationality, will be able to travel to the Republic of Cyprus from any country independently of its category (green, orange, red or grey) without being subject to any isolation or test requirement. A &lt;a href="https://cyprusflightpass.gov.cy/en/vaccinated-fly-request" target="_blank"&gt;dedicated form&lt;/a&gt; must be filled in within 24 hours before the last departure flight to the Republic of Cyprus.&lt;/p&gt;&lt;p&gt;Full information for vaccinated travellers is available at &lt;a href="https://cyprusflightpass.gov.cy/en/vaccinated-passengers" target="_blank"&gt;Cyprus Flight Pass - Vaccinated Passengers&lt;/a&gt;&lt;/p&gt;&lt;p&gt;All other travellers arriving from countries classified as "orange" or "red" are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;. The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Additionally, travellers from countries classified as "red" are subject to a &lt;strong&gt;second test upon their arrival&lt;/strong&gt;, at their own expenses.&lt;/p&gt;&lt;p&gt;The following categories may opt to be tested upon arrival in Cyprus only (at their own expenses):&lt;/p&gt;&lt;ol&gt;&lt;li&gt;Cypriot citizens and their family members (spouses, underage children and parents);&lt;/li&gt;&lt;li&gt;Persons legally residing in Cyprus;&lt;/li&gt;&lt;li&gt;Persons entitled to enter the Republic under the Vienna Convention;&lt;/li&gt;&lt;li&gt;Persons from countries classified as "orange", irrespective of their nationality, whose country of residence does not provide a laboratory testing service.&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;Travellers from countries classified as "orange" or "red" shall remain in mandatory self-isolation until they receive the test result. People arriving from "red" countries falling under categories 1-3 above must remain in self-isolation for 72 hours and, after that, they must undergo a second PCR test at their own expenses. If the last test is negative, isolation is ended.&lt;/p&gt;&lt;p&gt;Travellers from countries classified as "gray" must complete a compulsory self-isolation of 14 days. Self-isolation may be shortened by taking a PCR test on day 7 of the isolation period.&lt;/p&gt;&lt;p&gt;The test result must be sent to the following email address: &lt;a href="mailto:monada@mphs.moh.gov.cy"&gt;monada@mphs.moh.gov.cy&lt;/a&gt;&lt;/p&gt;&lt;p&gt;All travellers who test positive will be placed in compulsory confinement for &lt;strong&gt;14 days&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All passengers have to submit, within 24 hours before starting their journey, all the information and documents required to obtain the &lt;a href="https://www.cyprusflightpass.gov.cy/" target="_blank" rel="noopener"&gt;CyprusFlightPass&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;The download forms for passengers travelling to Cyprus can be found at &lt;a href="https://cyprusflightpass.gov.cy/en/download-forms" target="_blank" rel="noopener"&gt;https://cyprusflightpass.gov.cy/en/download-forms&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://cyprusflightpass.gov.cy/en/country-categories" target="_blank" rel="noopener"&gt;Updated information on Country Categories&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.pio.gov.cy/coronavirus/uploads/03052021_epidemiological_assessmentEN.pdf" target="_blank" rel="noopener"&gt;Epidemiological risk assessment (03/05/2021)&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact point for Cyprus:&lt;br /&gt;&lt;/strong&gt;A Covid-19 call centre is available from Monday to Sunday (8:00 - 20:00) at 1474. This service provides direct, timely and comprehensive information regarding all governmental initiatives related to COVID-19.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Stricter rules are in place in the &lt;strong&gt;District of Limassol &lt;/strong&gt;and &lt;strong&gt;Paphos,&lt;/strong&gt;&amp;nbsp;where:&amp;nbsp;&lt;/p&gt;&lt;p&gt;- catering establishments (restaurants, bars, caf&amp;eacute;s, etc.) have to close at &lt;strong&gt;10.30 pm&lt;/strong&gt;;&lt;/p&gt;&lt;p&gt;- the movement of citizens is banned from&lt;strong&gt;&amp;nbsp;11 pm to 5 am, &lt;/strong&gt;exluding movements for emergency and work reasons, provided that a certification or documentation is presented;&lt;/p&gt;&lt;p&gt;- &lt;strong&gt;afternoon sports&lt;/strong&gt; and social activities for children under the age of 18 are suspended;&lt;/p&gt;&lt;p&gt;- &lt;strong&gt;championship matches&lt;/strong&gt; for athlets under the age of 18 are suspended.&amp;nbsp;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.pio.gov.cy/coronavirus/uploads/17102020_ENmetra.pdf" target="_blank" rel="noopener"&gt;COVID-19 measures&lt;/a&gt;&lt;/p&gt;</t>
@@ -318,6 +336,12 @@
     <t>&lt;h3&gt;Entry Restrictions&lt;/h3&gt;&lt;p&gt;Entry rules for Cyprus depend on the epidemiological situation in countries of origin and transit.&lt;/p&gt;&lt;p&gt;The categorisation of countries is available at &lt;strong&gt;&lt;a href="https://cyprusflightpass.gov.cy/en/country-categories" target="_blank" rel="noopener"&gt;cyprusflightpass.gov.cy&lt;/a&gt;&lt;/strong&gt; and is revised on a weekly basis, according to the evolution of the epidemiological situation.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Category A&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Passengers from Category A countries are only asked to provide some specific information and a declaration.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Category B&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from a Category B country, or who have stayed in a Category B country in the 14 days before arrival to Cyprus, have to provide a document showing a negative PCR result for COVID-19 conducted within 72 hours before entering the country.&amp;nbsp;&lt;/p&gt;&lt;p&gt;In the following cases, travellers have also the option to be tested upon arrival, at their own expenses:&amp;nbsp;&lt;/p&gt;&lt;p&gt;- Cypriot citizens and their family members (foreign spouses and their minor children);&lt;/p&gt;&lt;p&gt;- persons legally residing in the Republic of Cyprus;&lt;/p&gt;&lt;p&gt;- persons allowed to enter the Republic of Cyprus under the Vienna Convention;&lt;/p&gt;&lt;p&gt;- persons from category B countries that are not&amp;nbsp;in the position to offer a laboratory testing service (public or private) to those wishing to travel to&amp;nbsp;Cyprus, provided that an announcement by the Ministry of Health of Cyprus grants this permission.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Category C&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from a Category C country, or who have stayed in a Category C country in the 14 days before arrival to Cyprus,&amp;nbsp;have to provide a document showing a negative PCR result for COVID-19 conducted within 72 hours before entering the country.&amp;nbsp;&lt;/p&gt;&lt;p&gt;In the following cases, travellers have also the option to be tested upon arrival, at their own expenses:&amp;nbsp;&lt;/p&gt;&lt;p&gt;- Cypriot citizens, permanently residing in the Republic of Cyprus and their family members (foreign spouses and their minor children);&lt;/p&gt;&lt;p&gt;- persons legally residing in the Republic of Cyprus;&lt;/p&gt;&lt;p&gt;- persons allowed to enter the Republic of Cyprus under the Vienna Convention;&lt;/p&gt;&lt;p&gt;- persons, regardless of nationality, having a special permission as defined under the infectious Diseases Decree N.30 (Determination of Measures Against the Spread of the COVID-19 Coronavirus disease), as amended.&lt;/p&gt;&lt;p&gt;Travellers from Category C countries have also to undergo a compulsory 14-days self-isolation, following the special precautions and preventive measures provided by the Ministry of Health. In addition, they have to submit to a second PCR test conducted 48 hours prior to the end of the period of self-isolation, at their own expenses. The result of the PCR test must be sent to the following email address: &lt;a href="mailto:monada@mphs.moh.gov.cy"&gt;monada@mphs.moh.gov.cy&lt;/a&gt;&amp;nbsp;and&amp;nbsp;the self-isolation will come to an end on the 14th day, provided that the test result is negative.&lt;/p&gt;&lt;p&gt;The prerequisites for passengers travelling to Cyprus from each country category can be found at: &lt;a href="https://cyprusflightpass.gov.cy/en/download-forms" target="_blank" rel="noopener"&gt;https://cyprusflightpass.gov.cy/en/download-forms&lt;/a&gt;&lt;/p&gt;&lt;h3&gt;Mandatory Travel Documentation&lt;/h3&gt;&lt;p&gt;All passengers travelling to the Republic of Cyprus have to submit, within 24 hours before starting their journey from the country of origin to the Republic of Cyprus (either via direct flight or with intermediate stops), all the information and documents required to obtain the &lt;a href="https://www.cyprusflightpass.gov.cy/" target="_blank" rel="noopener"&gt;CyprusFlightPass&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;The use of the platform is obligatory for anyone who wishes to travel to Cyprus. Consequently, when booking a flight, passengers have to be informed in advance by airlines, travel agents and/or internet booking platforms, before the final step of booking, that the acquisition of the CyprusFlightPass is necessary for their travel to the Republic of Cyprus.&lt;/p&gt;&lt;p&gt;Only in case of technical problems or scheduled maintenance of the electronic platform, which will be officially announced in the platform itself, passengers will be allowed to fill in the required form in writing.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="https://www.pio.gov.cy/coronavirus/" target="_blank" rel="noopener"&gt;Info&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.moh.gov.cy/moh/moh.nsf/All/0D5A0919CACA4BF8C225851B003E098C" target="_blank" rel="noopener"&gt;Info Coronavirus&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Czechia adopts &lt;a href="https://koronavirus.mzcr.cz/en/list-of-countries-according-to-the-level-of-risk/" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Czechia are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;Non-essential travel to Czechia is banned, regardless of the country of origin. People working, studying and visiting their families in Czechia are exempted from the travel ban, as well as people travelling to health and social facilities, weddings and funerals.&lt;/p&gt;&lt;p&gt;Travelling for tourism or to visit friends is not possible.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers who spent longer than 12 hours in the last 14 days in a territory classified as &lt;a href="https://koronavirus.mzcr.cz/en/list-of-countries-according-to-the-level-of-risk/" target="_blank"&gt;"Orange", "Red" or "Dark Red"&lt;/a&gt; are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt; (PCR), or within &lt;strong&gt;24 hours prior to arrival&lt;/strong&gt; (rapid antigen test). Travellers from "Dark Red" countries must present a PCR test.&lt;/p&gt;&lt;p&gt;Additionally:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Travellers from "&lt;strong&gt;Orange&lt;/strong&gt;" countries must wear a facemask (FFP2, KN95) for 14 days after entering the country;&lt;/li&gt;&lt;li&gt;Travellers from "&lt;strong&gt;Red&lt;/strong&gt;" countries must undergo a second PCR test at their own expenses &lt;strong&gt;within 5 days from arrival&lt;/strong&gt;. Free movement is prohibited until a negative test result is available. Face masks (FFP2, KN95) must be worn for 14 days after entrance.&lt;/li&gt;&lt;li&gt;Travellers from "&lt;strong&gt;Dark Red&lt;/strong&gt;" countries must undergo a second PCR test at their own expenses &lt;strong&gt;no earlier than 24 hours after arrival&lt;/strong&gt;. Free movement is prohibited until a negative test result is available. Individuals must wear a facemask (FFP2, KN95) for 14 days after entering.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Additional information can be found at &lt;a href="https://covid.gov.cz/en/measures/travelling-abroad/arriving-countries-high-risk-covid-19-transmission" target="_blank" rel="noopener"&gt;covid.gov.cz&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from "Red" and "Dark Red" areas must self-isolate until a second negative test result is provided. For travellers from "Dark Red" areas, the test must be taken no earlier than on the 10th of the mandatory self-isolation.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;A &lt;a href="https://plf.uzis.cz/" target="_blank" rel="noopener"&gt;Passenger Locator Form&lt;/a&gt; is mandatory for travellers arriving from "Orange", "Red" and "Dark Red" countries.&lt;/p&gt;&lt;p&gt;A &lt;a href="https://koronavirus.mzcr.cz/wp-content/uploads/2021/02/Medical-certificate-on-suffering-covid-19-disease-in-the-past-when-travelling-to-the-Czech-Republic.pdf" target="_blank" rel="noopener"&gt;Medical Certificate&lt;/a&gt; is required for people who suffered Covid-19 disease in the past.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Other:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;For citizens of the Czech Republic (including their family members) and EU/foreign citizens with a permanent residence permit, &lt;a href="https://koronavirus.mzcr.cz/wp-content/uploads/2021/04/Rules-for-entry-and-return-to-the-Czechia_EU_5.4.2021-scaled.jpg" target="_blank" rel="noopener"&gt;specific rules&lt;/a&gt; apply according to the means of transport they use (private or public).&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://koronavirus.mzcr.cz/wp-content/uploads/2021/04/Notification-of-the-Ministry-of-Health-issuing-a-list-of-countries-or-their-parts-with-a-low-medium-and-high-risk-of-COVID-19-transmission-from-26th-April.pdf" target="_blank" rel="noopener"&gt;List of countries according to the level of risk&lt;/a&gt;&lt;br /&gt;&lt;a href="https://koronavirus.mzcr.cz/wp-content/uploads/2021/02/Restriction_on_the_entry_of_Foreigners_to_the_Czech_republic_as_of_January_30th_2021_-_20210202.jpg" target="_blank" rel="noopener"&gt;Restrictions on the entry of foreigners&lt;/a&gt;&lt;br /&gt;&lt;a href="https://koronavirus.mzcr.cz/wp-content/uploads/2021/04/Protective_measure_against_SARS-CoV-2_from_April_5th_2021_-_20210404.pdf" target="_blank" rel="noopener"&gt;Protective measure&lt;/a&gt;&lt;br /&gt;&lt;a href="https://covid.gov.cz/en/measures/travelling-abroad" target="_blank" rel="noopener"&gt;Travelling abroad&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact point for the Czech Republic:&lt;br /&gt;&lt;/strong&gt;+420 974 801 801 &lt;br /&gt;Mo &amp;ndash; Th: 8.00 &amp;ndash; 16.00 and Fr: 8.00 &amp;ndash; 12.00&lt;br /&gt;(The telephone hotline provides information in Czech and English)&lt;/p&gt;&lt;p&gt;For inquiries related to the entry, you can send an email to &lt;a href="mailto:cestovani.covid19@mvcr.cz"&gt;&lt;strong&gt;cestovani.covid19@mvcr.cz&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://koronavirus.mzcr.cz/en/important-phone-numbers/" target="_blank" rel="noopener"&gt;Important phone numbers&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -333,12 +357,21 @@
     <t>&lt;p&gt;Before starting your journey, please check visa requirements for your destination at: &lt;a href="https://ec.europa.eu/home-affairs/what-we-do/policies/borders-and-visas/visa-policy/schengen_visa_en" target="_blank" rel="noopener"&gt;The Schengen visa&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="https://www.mmr.cz/cs/ministerstvo/vsechna-opatreni-a-pomoc-mmr-pri-pandemii-covid-19/cestovani-v-dobe-koronaviru" target="_blank" rel="noopener"&gt;Tourism in Czech Republic&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Estonia adopts &lt;a href="https://vm.ee/en/information-countries-and-self-isolation-requirements-passengers#EU%20+%20Schengen" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Estonia are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers from &lt;a href="https://vm.ee/en/information-countries-and-self-isolation-requirements-passengers#EU%20+%20Schengen" target="_blank"&gt;high-risk countries&lt;/a&gt; are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;br /&gt;A second test has to be taken &lt;strong&gt;no earlier than on day 6 after the first test taken abroad&lt;/strong&gt;. A person is released from the 10-day isolation obligation if the results of both tests are negative.&lt;/p&gt;&lt;p&gt;Those who have not taken the test up to 72 hours before arriving in Estonia can take the first test in Estonia immediately after arriving in the country, and the second test no earlier than 6 days after the first test.&lt;/p&gt;&lt;p&gt;An &lt;a href="https://vm.ee/en/information-countries-and-self-isolation-requirements-passengers#EU%20+%20Schengen" target="_blank" rel="noopener"&gt;updated list of risk countries&lt;/a&gt; is published by the Ministry of Foreign Affairs every Friday and comes into force on Monday of the following week.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; &lt;strong&gt; Provisions for vaccinated people&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;The testing requirement does not apply to persons who have been vaccinated against COVID-19 in the last six months, or who have recovered from COVID-19 in the last six months and who have been declared healthy by a doctor.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers from &lt;a href="https://vm.ee/en/information-countries-and-self-isolation-requirements-passengers#EU%20+%20Schengen" target="_blank"&gt;high-risk countries&lt;/a&gt; must complete a &lt;strong&gt;10-day mandatory quarantine&lt;/strong&gt;.&lt;br /&gt;As an alternative, they can submit to a double testing procedure.&lt;/p&gt;&lt;p&gt;The quarantine period may be shortened by taking a second RT-PCR test no less than 6 days after the first test. If the result of both tests is negative, the period of quarantine can end.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; &lt;strong&gt; Provisions for vaccinated people&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;The 10-day isolation requirement does not apply to persons who have been vaccinated against COVID-19 in the last six months, or who have recovered from COVID-19 in the last six months and who have been declared healthy by a doctor.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://vm.ee/en/information-countries-and-self-isolation-requirements-passengers#EU%20+%20Schengen" target="_blank" rel="noopener"&gt;Information on countries and restriction on freedom of movement requirements for passengers&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.kriis.ee/en/news/government-provides-exemptions-restrictions-people-who-have-recovered-and-been-vaccinated"&gt;Exemptions from restrictions for people who have recovered from and been vaccinated against COVID-19 | (kriis.ee)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;a href="https://vm.ee/en/information-countries-and-self-isolation-requirements-passengers#EU%20+%20Schengen" target="_blank" rel="noopener"&gt;Information on countries and restriction on freedom of movement requirements for passengers&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://www.kriis.ee/en/travelling-and-border-crossing"&gt;Travelling and border crossing&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="http://koroonaviirus.ee" target="_blank" rel="noopener"&gt;Info Coronavirus&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Denmark adopts its own national classification of risk areas, hence travel restrictions for Denmark are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;Countries and regions are &lt;a href="https://en.coronasmitte.dk/rules-and-regulations/entry-into-denmark/categorization-of-countries" target="_blank"&gt;classified into 3 categories&lt;/a&gt; &amp;ndash; "yellow", "orange" and "red". Countries and regions are classified on a weekly basis on the basis of the health situation in the country or region.&lt;/p&gt;&lt;p&gt;Danish nationals and foreigners who are resident, or hold a valid residence permit in Denmark, can enter regardless of their purpose. Foreigners habitually resident abroad and travelling from "orange" and "red" countries must have a worthy purpose.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; From 1 May, &lt;strong&gt;fully vaccinated persons&lt;/strong&gt; who are permanent residents of "orange" EU and Schengen countries, and who can document that they have completed a course of vaccination in an EU/Schengen country, are no longer required to present a negative test or have a worthy purpose for travelling to Denmark, and they are &lt;strong&gt;exempt from the testing and isolation requirements&lt;/strong&gt; on entering Denmark. Full details on conditions and requirements are available at &lt;a href="https://en.coronasmitte.dk/rules-and-regulations/entry-into-denmark/legal-requirements-upon-entry" target="_blank" rel="noopener"&gt;coronasmitte.dk&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;48 hours prior to departure&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;There are currently no speciﬁc requirements as to the type of COVID-19 test (rapid antigen and PCR are accepted).&lt;/p&gt;&lt;p&gt;The requirement to test before entry via sea or land borders applies to foreigners who are not resident in Denmark or not holding a Danish residence permit. The requirement to test before boarding an aircraft is applicable to everyone, including Danish citizens and foreigners residing in Denmark or holding a Danish residence permit.&lt;/p&gt;&lt;p&gt;Additionally, all entrants must take a second test (antigen or PCR) &lt;strong&gt;no later than 24 hours after entering Denmark&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Children aged 12 and under, as well as passengers flying to Denmark from Greenland and the Faroe Islands, are exempted from the testing requirement.&lt;/p&gt;&lt;p class="border"&gt;Foreigners who are habitually resident in border region (Schleswig-Holstein, southern Sweden (the provinces of Blekinge and Scania) and western Sweden (the provinces of Halland and West Gothia), and who have a worthy purpose of entry, are required to present a negative COVID-19 test taken no more than 72 hours before entry. Foreigners who are habitually resident in a border region, but do not have a worthy purpose, can still enter Denmark, but they have to present a negative COVID-19 test taken no more than 24 hours before entry.&lt;/p&gt;&lt;p class="border"&gt;Passengers who have been previously infected with COVID-19 are no longer perceived to be contagious. These passengers must present proof of a positive COVID-19 test result from a test performed between 14 days and 12 weeks prior to entry.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from "orange" and "red" countries must complete a &lt;strong&gt;10-day mandatory quarantine&lt;/strong&gt;. Thus, you must isolate after entry into Denmark even if you obtained a negative test result before entry and upon arrival or after entry. This applies regardless of whether the test is a rapid test (antigen test) or a PCR test, and regardless of whether you are a Danish or foreign citizen.&lt;br /&gt;The quarantine period may be shortened by taking a PCR test no less than 4 days after arrival. If the result of this test is negative, the period of quarantine can end.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://en.coronasmitte.dk/rules-and-regulations/entry-into-denmark" target="_blank" rel="noopener"&gt;Entry into Denmark&lt;/a&gt;&lt;br /&gt;&lt;a href="https://en.coronasmitte.dk/rules-and-regulations/entry-into-denmark/entry-forms-and-certificates" target="_blank" rel="noopener"&gt;Forms and certificates&lt;/a&gt;&lt;br /&gt;&lt;a href="https://en.coronasmitte.dk/rules-and-regulations/entry-into-denmark/regarding-persons-travelling-to-denmark-by-air"&gt;Travelling to Denmark by air&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact Point for Denmark:&lt;br /&gt;&lt;/strong&gt;Hotline of the Danish police: +45 7020 6044&lt;/p&gt;&lt;p&gt;Opening hours:&lt;br /&gt;Monday-Wednesday 08.00-16.00&lt;br /&gt;Thursday 08.00-15.00&lt;br /&gt;Friday 08.00-14.00&lt;/p&gt;</t>
   </si>
   <si>
@@ -348,6 +381,9 @@
     <t>Travellers are advised to quarantine at home for 14 days upon their return to Denmark from a country not included in the list of open countries.</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="https://coronasmitte.dk/" target="_blank" rel="noopener"&gt;Info Coronavirus&lt;/a&gt; (in Danish)&lt;/p&gt;&lt;p&gt;&lt;a href="https://coronasmitte.dk/en" target="_blank" rel="noopener"&gt;Info Coronavirus&lt;/a&gt; (in English)&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Finland adopts &lt;a href="https://thl.fi/en/web/infectious-diseases-and-vaccinations/what-s-new/coronavirus-covid-19-latest-updates/travel-and-the-coronavirus-pandemic/traffic-light-model-to-help-in-the-assessment-of-risks-associated-with-foreign-travel" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Finland are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;Entry restrictions for Finland are detailed on the website of &lt;a href="https://valtioneuvosto.fi/en/entry-restrictions" target="_blank" rel="noopener"&gt;the Finnish Government&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Entry into Finland is only permitted for essential and justified reasons&lt;/strong&gt;, such as studies or family-related reasons. Only essential travel for work is permitted from the Schengen area and across external borders (with the exception of those countries from which travel to Finland is permitted without restrictions)&lt;/p&gt;&lt;p&gt;Finnish citizens always have the right to return to Finland. Family members of Finnish citizens may also enter the country regardless of their nationality.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers who do not live in Finland should take a COVID-19 test less than 72 hours before arriving in Finland. A second test can be taken in Finland no earlier than 72 hours after arriving in Finland. Between the tests, self-isolation at the place of accommodation is recommended. The self-isolation period will end if the second test result is negative. If a person's test result is positive, a mandatory quarantine must be completed until full recovery.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;A &lt;strong&gt;14-day&lt;/strong&gt; period of self-isolation is recommended for travellers arriving in Finland from high-incidence countries.&lt;/p&gt;&lt;p&gt;Travellers can shorten their self-isolation period if they take two COVID-19 tests, and the results are negative. The tests are necessary even if you have received two doses of corona vaccine.&lt;/p&gt;&lt;p&gt;Residents of Finland returning from high-incidence countries may shorten the 14-day period of self-isolation by taking a test at the airport or port as soon as they arrive in Finland, followed by a second test in their home municipality no earlier than 72 hours after the first test. Between the tests, self-isolation at home is recommended.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://thl.fi/en/web/infectious-diseases-and-vaccinations/what-s-new/coronavirus-covid-19-latest-updates/travel-and-the-coronavirus-pandemic/traffic-light-model-to-help-in-the-assessment-of-risks-associated-with-foreign-travel" target="_blank" rel="noopener"&gt;Finnish Institute for Health and Welfare&lt;/a&gt;&lt;br /&gt;&lt;a href="https://um.fi/current-affairs/article/-/asset_publisher/iYk2EknIlmNL/content/kysymyksi-c3-a4-ja-vastauksia-matkustamisesta-ja-koronaviruksesta" target="_blank" rel="noopener"&gt;Q&amp;amp;As about travel and coronavirus&lt;/a&gt;&lt;br /&gt;&lt;a href="https://raja.fi/en/guidelines-for-border-traffic-during-pandemic" target="_blank" rel="noopener"&gt;Guidelines for border traffic during pandemic (raja.fi)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -357,6 +393,9 @@
     <t>&lt;p&gt;&lt;a href="https://thl.fi/en/web/infectious-diseases-and-vaccinations/what-s-new/coronavirus-covid-19-latest-updates/travel-and-the-coronavirus-pandemic#Ohjeita_Suomeen_saapuville_matkustajille_ja_ty%C3%B6ntekij%C3%B6ille" target="_blank" rel="noopener"&gt;A 10-day period of quarantine&lt;/a&gt; is recommended for travellers arriving in Finland from high incidence countries. Travellers can shorten their quarantine period if they take two voluntary COVID-19 tests and the results are negative.&amp;nbsp;&lt;/p&gt;&lt;p&gt;You can assess the need for voluntary quarantine with the help of &lt;a href="https://thl.fi/en/web/infectious-diseases-and-vaccinations/what-s-new/coronavirus-covid-19-latest-updates/travel-and-the-coronavirus-pandemic#Ohjeita_Suomeen_saapuville_matkustajille_ja_ty%C3%B6ntekij%C3%B6ille" target="_blank" rel="noopener"&gt;the traffic light model.&lt;/a&gt; The traffic lights help in assessing the risk of coronavirus infection related to travelling abroad. The traffic lights are updated once a week.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Exceptions to quarantine recommendations: &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;If the person has a negative coronavirus test certificate that is less than 72 hours old at the time of arrival in Finland and will stay in the country for less than 72 hours, a second test and voluntary quarantine are not required.&lt;/p&gt;&lt;p&gt;Daily traffic across the land border between Finland, Sweden and Norway continues to be possible between border communities without quarantine or testing. Local border communities are areas on both sides of the border where people naturally cross the national border on a daily or weekly basis as part of their daily life. As a rule, this traffic consists of normal shopping trips and use of other services.&lt;/p&gt;&lt;p&gt;From Sweden and Estonia, it is possible to come to Finland for work and correspondingly, it is possible to go to work in Sweden and Estonia from Finland without a voluntary 10-day quarantine or tests.&amp;nbsp;The commuting must be regular and take place at least on a weekly basis.&lt;/p&gt;&lt;p&gt;Personnel groups that are necessary for the security of supply do not need to stay in voluntary quarantine. The Border Guard decides on the admission of these persons into the country.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Testing:&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;There are health information points at airports, harbours, and land borders where you can ask where the nearest testing place is located.&lt;/p&gt;&lt;p&gt;You can have a test at an airport, the health clinic of your home municipality, or a private medical clinic. If you go to a private clinic, you will have to pay for the test.&lt;/p&gt;&lt;p&gt;If you are not a permanent resident of Finland, get in touch with your local health centre.&amp;nbsp;You can also take a test at a private clinic, but the test is subject to a fee.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://www.visitfinland.com/"&gt;Visit Finland&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;France adopts its own national classification of risk areas, hence travel restrictions for France are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;Any international travel is discouraged until further notice unless pressing reasons require it.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Upon their arrival, passengers will also be subject to a PCR test.&amp;nbsp;&lt;/p&gt;&lt;p&gt;If a test cannot be carried out in the country of departure, you can ask the French Embassy or Consulate for a specific document called "RT-PCR test exemption". In this case, you will be tested upon arrival and a &lt;strong&gt;7-day compulsory quarantine&lt;/strong&gt; will have to be completed in an accommodation establishment validated by the public authorities, with an additional test at the end of the isolation period.&lt;/p&gt;&lt;p&gt;Children aged 11 and under are exempted.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;In the case of COVID-19 symptoms, travellers will have to undergo a quarantine or isolation.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Specific rules for the French Overseas Territories&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travel to/from French Polynesia, New Caledonia or the Wallis and Futuna islands is possible only for imperative family or professional reasons.&lt;/p&gt;&lt;p&gt;The specific conditions for each overseas territory are available at the following websites:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.guadeloupe.gouv.fr/" target="_blank" rel="external noopener"&gt;Guadalupe&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.guyane.gouv.fr/" target="_blank" rel="external noopener"&gt;French Guyana&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.martinique.gouv.fr/" target="_blank" rel="external noopener"&gt;Martinique&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.mayotte.gouv.fr/" target="_blank" rel="external noopener"&gt;Mayotte&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.nouvelle-caledonie.gouv.fr/" target="_blank" rel="external noopener"&gt;New Caledonia&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.polynesie-francaise.pref.gouv.fr/" target="_blank" rel="external noopener"&gt;French Polynesia&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.reunion.gouv.fr/" target="_blank" rel="external noopener"&gt;Reunion&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="http://www.saint-barth-saint-martin.gouv.fr/" target="_blank" rel="external noopener"&gt;Saint Barts and Saint Martin (French side)&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="http://www.saint-pierre-et-miquelon.gouv.fr/" target="_blank" rel="external noopener"&gt;Saint Pierre and Miquelon&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://taaf.fr/en/" target="_blank" rel="external noopener"&gt;The French Southern and Antarctic territories&lt;/a&gt;&lt;/li&gt;&lt;li&gt;&lt;a href="https://www.wallis-et-futuna.gouv.fr/" target="_blank" rel="external noopener"&gt;Wallis and Futuna&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;You will have to provide a &lt;a href="https://www.interieur.gouv.fr/Actualites/L-actu-du-Ministere/Attestation-de-deplacement-et-de-voyage" target="_blank" rel="external noopener"&gt;certificate of international travel&lt;/a&gt; for travel to/from these territories.&lt;/p&gt;&lt;p&gt;Upon arrival in metropolitan France, you will be required to have a PCR test or, failing that, to comply with a 7-day isolation.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory travel documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers need to present a &lt;a href="https://www.interieur.gouv.fr/Actualites/L-actu-du-Ministere/Attestation-de-deplacement-et-de-voyage" target="_blank" rel="noopener"&gt;declaration&lt;/a&gt; that they do not have COVID-19 symptoms and that they have not been in contact with a confirmed case in the 14 days before their travel. They also agree to submit to a PCR test upon arrival. This requirement does not apply to people under the age of 11.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.diplomatie.gouv.fr/en/coming-to-france/coronavirus-advice-for-foreign-nationals-in-france/" target="_blank" rel="noopener"&gt;diplomatie.gouv.fr&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.interieur.gouv.fr/Actualites/L-actu-du-Ministere/Attestation-de-deplacement-et-de-voyage" target="_blank" rel="noopener"&gt;Attestations de d&amp;eacute;placement d&amp;eacute;rogatoire&lt;/a&gt;&lt;br /&gt;&lt;a href="https://solidarites-sante.gouv.fr/soins-et-maladies/maladies/maladies-infectieuses/coronavirus/tout-savoir-sur-la-covid-19/article/informations-a-destination-des-voyageurs" target="_blank" rel="noopener"&gt;Information for travellers&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact Point for France:&lt;br /&gt;&lt;/strong&gt;A toll-free hotline service (French only) can answer your questions about COVID-19 24 hours a day, 7 days a week: 0 800 130 000 (from abroad: +33 800 130 000, depending on your operator).&lt;/p&gt;</t>
   </si>
   <si>
@@ -369,6 +408,9 @@
     <t>&lt;p&gt;Travellers from &lt;strong&gt;EU Member States + Schengen Associated countries&lt;/strong&gt; and from the following third-countries: &lt;strong&gt;Australia&lt;/strong&gt;, &lt;strong&gt;Japan&lt;/strong&gt;, &lt;strong&gt;New Zealand&lt;/strong&gt;, &lt;strong&gt;Rwanda&lt;/strong&gt;, &lt;strong&gt;Singapore&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;South Korea&lt;/strong&gt;, &lt;strong&gt;Thailand&lt;/strong&gt;&amp;nbsp;can enter without restrictions.&lt;/p&gt;&lt;p&gt;Air passengers arriving from certain countries are required to present results of a negative virology COVID-19 test (a PCR test for example), carried out less than 72 hours before the flight:&lt;br /&gt; - air passengers travelling from &lt;strong&gt;Bahrain, the United Arab Emirates, the United States, &lt;/strong&gt;or &lt;strong&gt;Panama&lt;/strong&gt; and as of 11.11.2020 air passengers from &lt;strong&gt;Algeria, China, Democratic Republic of Congo, Ecuador, Iraq, Iran, Israel, Lebanon, Morocco, South Africa, Russia, Turkey, Ukraine and Zimbabwe&lt;/strong&gt;, must present a negative virology COVID-19 test upon boarding the flight.&lt;br /&gt; - Travellers from countries &lt;strong&gt;others than those mentioned above&amp;nbsp;&lt;/strong&gt;are strongly recommended to present a negative test result upon arrival in France, carried out less than 72 hours before departure or to undergo the test upon arrival.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Travelling to/from&lt;strong&gt; Reunion, Mayotte, French Polynesia, New Caledonia or the Wallis and Futuna islands&lt;/strong&gt;&amp;nbsp;is allowed only for proven compelling family or professional grounds.&amp;nbsp;Travel to&amp;nbsp;&lt;strong&gt;French Polynesia&lt;/strong&gt;&amp;nbsp;is subjected to special rules available on &lt;a href="https://www.etis.pf/" target="_blank" rel="noopener"&gt;www.etis.pf&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;Upon arrival to metropolitan France from one of these territories, travellers will be encouraged to submit to a PCR test or, failing that, to comply with a 7-days isolation period. Furthermore, an exempted movement certificate available on the &lt;a href="https://www.interieur.gouv.fr/Actualites/L-actu-du-Ministere/Attestation-de-deplacement-et-de-voyage" target="_blank" rel="noopener"&gt;Ministry of Interior's website&lt;/a&gt; has to be provided.&lt;/p&gt;&lt;p&gt;The following travellers may be asked to quarantine or remain in isolation upon arrival:&lt;/p&gt;&lt;p&gt;- travellers with symptoms of COVID-19 upon arrival into France;&lt;/p&gt;&lt;p&gt;- travellers who, upon arrival, cannot show the results of a virology test carried out less than 72 hours before flying, which proves that the traveller does not have COVID-19.&lt;/p&gt;&lt;p&gt;For all passengers a declaration of no symptoms of Covid-19 and no contact with a confirmed case of Covid-19 within 14 days prior to the flight is required.&lt;/p&gt;&lt;p&gt;All the previous requirements do not apply to children under the age of 11.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.diplomatie.gouv.fr/en/coming-to-france/coronavirus-advice-for-foreign-nationals-in-france/" target="_blank" rel="noopener"&gt;Coronavirus advice for foreign nationals&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="https://www.gouvernement.fr/info-coronavirus" target="_blank" rel="noopener"&gt;Info Covid-19&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Germany is implementing travel restrictions on the basis of the information underpinning the EU "traffic lights" approach, which applies to EU and EEA countries.&lt;/p&gt;&lt;p&gt;Risk areas are defined as 'virus variant area', 'high incidence area', or 'risk area'. The website of the&amp;nbsp;&lt;a class="icon external" href="https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Risikogebiete_neu.html" target="_blank" rel="nofollow noopener"&gt;Robert Koch Institute (RKI)&lt;/a&gt; shows which country falls into which category.&lt;/p&gt;&lt;p&gt;The entry rule is based on the country from which the traveller is coming from, and not on nationality.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers by air are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;48 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Accepted tests: PCR, TMA, LAMP, rapid antigen. Antibody tests are not accepted.&lt;/p&gt;&lt;p&gt;Children aged 5 and under are exempted.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;The test result has to be available as a printout or in electronic form;&lt;/li&gt;&lt;li&gt;The certificate needs to be personalised (including name, address, date of birth of the person tested);&lt;/li&gt;&lt;li&gt;It has to be available in the German, English or French language;&lt;/li&gt;&lt;li&gt;The proof must include the test method and the test result;&lt;/li&gt;&lt;li&gt;The test result needs to be validated by a physician or a recognised laboratory.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Travellers from 'new variant areas' and 'high incidence' areas are subject to stricter rules. Anyone who has been in one of these areas in the 10 days before entry is obliged to provide proof of a negative test result or corresponding medical certificate, upon entry. The test performed must meet the requirements stated at &lt;a href="https://www.rki.de/tests" target="_blank" rel="noopener"&gt;https://www.rki.de/tests&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers who have stayed in a 'risk area' within 10 days before entry must complete a &lt;strong&gt;10-day quarantine&lt;/strong&gt; upon arrival in Germany.&lt;/p&gt;&lt;p&gt;The quarantine period may be shortened by taking a second PCR test no less than 5 days after arrival. If the result of this test is negative, the period of quarantine can end.&lt;/p&gt;&lt;p&gt;Certain groups of people are exempt from the quarantine obligation. For more information on quarantine regulations and possible exemptions, please contact the respective federal state. Regulations of the respective federal states are available &lt;a href="https://www.bundesregierung.de/breg-de/themen/coronavirus/corona-bundeslaender-1745198" target="_blank" rel="noopener"&gt;at the following website&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory travel documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers entering the Federal Republic of Germany, who have been in a risk area at any time within the last 10 days before entry, are obliged to &lt;a href="https://www.einreiseanmeldung.de/#/" target="_blank" rel="noopener"&gt;digitally register&lt;/a&gt;, conduct a test for the coronavirus and, depending on the regulations of the federal state, go into quarantine. If in exceptional cases, it is not possible to complete a digital entry registration, travellers must instead fill out a &lt;a class="rte__anchor i-pdf" href="https://www.bundesgesundheitsministerium.de/fileadmin/Dateien/3_Downloads/C/Coronavirus/Infoblatt/Anlage_2_Ersatzmitteilung.pdf" target="_blank" rel="noopener"&gt;registration on paper.&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more: &lt;br /&gt;&lt;/strong&gt;More information is available at the &lt;a href="https://www.auswaertiges-amt.de/en/einreiseundaufenthalt/coronavirus#content_3" target="_blank"&gt;Federal Foreign Office&lt;/a&gt; website and &lt;a href="https://www.bundesgesundheitsministerium.de/coronavirus-infos-reisende.html#c18635" target="_blank" rel="noopener"&gt;the Ministry of Health&lt;/a&gt; (in German).&lt;/p&gt;</t>
   </si>
   <si>
@@ -381,6 +423,9 @@
     <t>&lt;p&gt;&lt;a href="https://www.auswaertiges-amt.de/en/einreiseundaufenthalt/coronavirus#content_1"&gt;Quarantine regulations and COVID-19 tests&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Also see &lt;a href="https://www.bundesgesundheitsministerium.de/coronavirus-infos-reisende/faq-tests-entering-germany.html#c18635" target="_blank" rel="noopener"&gt;FAQ on corona testing and quarantine&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://corona-navigator.de"&gt;www.corona-navigator.de&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.germany.travel/de/trade/trade-home/trade.html"&gt;https://www.germany.travel/de/trade/trade-home/trade.html&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.germany.travel/en/info/sars-cov-2.html"&gt;https://www.germany.travel/en/info/sars-cov-2.html&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Greece adopts its own national classification of risk areas, hence travel restrictions for Greece are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;Land border arrivals are allowed through the &lt;strong&gt;Promachonas &lt;/strong&gt;and &lt;strong&gt;Nymphaio &lt;/strong&gt;border checkpoints.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Arrivals by sea are prohibited. As of 23 April, blue cruising and yachting will be allowed with some restrictions.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Children aged 5 and under are exempted.&lt;/p&gt;&lt;p&gt;The certificate should be written in English and must include the name and passport number or national identification number of the traveller.&lt;/p&gt;&lt;p&gt;Upon their arrival, passengers will also be subject to random testing (rapid tests) as per the procedure described in the &lt;a href="https://travel.gov.gr/#/" target="_blank" rel="noopener"&gt;Passenger Locator Form&lt;/a&gt;. Those entering from Promachonas will also have to take a rapid test for Covid-19 at the entrance checkpoint.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt;People who have completed the vaccination within at least 14 days prior to their arrival and who are able to provide the vaccination certificate, &lt;strong&gt;are not required to provide a pre-departure negative PCR test.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;In case of a positive test result, travellers will be quarantined for at least &lt;strong&gt;10 days&amp;nbsp;&lt;/strong&gt;and additional PCR tests will be carried out at the beginning and end of the isolation period.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Before entering the country, all travellers must complete a &lt;a href="https://travel.gov.gr/#/" target="_blank" rel="noopener"&gt;Passenger Locator Form&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://greecehealthfirst.gr/" target="_blank" rel="noopener"&gt;Destination Greece. Health first!&lt;/a&gt;&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://travel.gov.gr/#/" target="_blank" rel="noopener"&gt;Travel.gov.gr&lt;/a&gt;&lt;br /&gt;&lt;a href="https://covid19.gov.gr/rythmiseis-gia-tin-omali-kinisi-ton-epivaton-aktoploias-kata-tis-ores-apagorefsis-kykloforias21-00-05-00/" target="_blank" rel="noopener"&gt;Arrangements for the smooth movement of coastal passengers during curfew hours&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
@@ -393,6 +438,9 @@
     <t>&lt;p&gt;As of 11.11.2020, proof of a &lt;strong&gt;negative PCR test&lt;/strong&gt; taken no longer than 72 hours before departure will be &lt;strong&gt;required to all passengers entering Greece by air or land&lt;/strong&gt;.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Travellers should be laboratory tested with RT-PCR of oropharyngeal or nasopharyngeal swab. The negative result certificate should be written in English and include name and passport number or national identification number of the traveller. This applies to all travellers including Greek citizens, permanent residents of Greece and travellers for essential professional reasons. &lt;br /&gt;In the event of a positive result, travellers will be contacted and placed in a 14-day quarantine, with the expenses covered by the Greek state. Children under the age of 10 are not subject to the obligation to perform a PCR test.&lt;br /&gt;In addition to this all travellers must complete the Passenger Locator Form (&lt;a href="https://travel.gov.gr/#/" target="_blank" rel="noopener"&gt;PLF&lt;/a&gt;).&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://travel.gov.gr/#" target="_blank" rel="noopener"&gt;travel.gov.gr&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="http://eody.gov.gr" target="_blank" rel="noopener"&gt;Info Coronavirus&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Hungary adopts its own national classification of risk areas, hence travel restrictions for Hungary are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;Hungary has closed its border to all foreign nationals for an indefinite period due to the COVID-19 pandemic.&lt;/p&gt;&lt;p&gt;Only Hungarian nationals, non-Hungarian nationals who are permanently resident in Hungary or non-Hungarian nationals who have permission to remain longer than 90 days, are allowed entry into the country.&lt;/p&gt;&lt;p&gt;Foreign nationals can enter Hungary only for the following reasons:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;taking part in a Hungarian court procedure;&lt;/li&gt;&lt;li&gt;carrying out business or other activity justified by a letter of invitation issued by a central government body, an individual regulatory body, or an autonomous state body;&lt;/li&gt;&lt;li&gt;receiving health care service, certified by a document issued by the health care institution;&lt;/li&gt;&lt;li&gt;carrying out study or exam duty required by an educational institution, certified by a document issued by the educational institution;&lt;/li&gt;&lt;li&gt;taking part in cargo-related passenger traffic if the aim of the travel is either to get to the cargo transport&amp;rsquo;s point of departure, or to get home after carrying out such cargo transport duty, if certified by a document issued by the employer;&lt;/li&gt;&lt;li&gt;participation in family events (wedding, funeral, christening);&lt;/li&gt;&lt;li&gt;taking care of a relative;&lt;/li&gt;&lt;li&gt;taking part in an international sports-, cultural or religious event of a special significance.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Upon entry, individuals must agree to undergo a medical examination (temperature check). In case a suspicion of COVID-19 infection arises during the health examination, the individual will be refused entry.&lt;/p&gt;&lt;p&gt;Citizens of neighbouring states and Hungarian citizens living there may enter the territory within a distance of 30 kilometres from the state border for a maximum of 24 hours, but they may not leave this lane. Hungarians living in this 30-kilometre lane can also enter if they have stayed in the 30-kilometre lane from the border of the neighbouring state for less than 24 hours.&lt;/p&gt;&lt;p class="border"&gt;Those who can prove with either a Hungarian or English language document that they have recovered from COVID-19 in the past 6 months (e.g.: PCR test results, verification by a health service provider or authority) can enter Hungary without restrictions.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers must complete a &lt;strong&gt;10-day mandatory quarantine&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;If the person has no place of residency in Hungary, they must enter a government-designated place of quarantine.&lt;br /&gt;Hungarian citizens returning from abroad are required to quarantine unless they undergo a double testing procedure.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;The quarantine period may be shortened by taking a PCR test no less than 5 days after arrival, followed by a second PCR test no less than 48 hours after the first one. If the result of these tests is negative, the period of quarantine can end.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Foreign nationals wishing to enter Hungary for the reasons listed above must apply for an exemption at &lt;a href="https://ugyintezes.police.hu/en/home" target="_blank" rel="noopener"&gt;https://ugyintezes.police.hu/en/home&lt;/a&gt;.&lt;br /&gt;The form, which should be completed in advance of travelling, is available in English or Hungarian.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://konzuliszolgalat.kormany.hu/index" target="_blank" rel="noopener"&gt;Consular Services&lt;/a&gt; (Hungarian)&lt;br /&gt;&lt;a href="https://www.bud.hu/en/covid_19/information_on_entering_and_leaving_hungary" target="_blank" rel="noopener"&gt;Information from Budapest Airport&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -402,6 +450,9 @@
     <t>&lt;p&gt;Entry from EU Member States + Schengen Associated countries is generally &lt;strong&gt;not allowed without a special reason&lt;/strong&gt;. Citizens of Czechia, Poland and Slovakia are allowed to enter Hungary if they show a negative coronavirus test not older than five days.&lt;/p&gt;&lt;p&gt;Military convoys and business or diplomatic trips can be exempted from the regulations. Furthermore,&amp;nbsp;exemption may be granted by the police if entry also is for court, administrative, family, health, education or other legitimate reasons and if health screening is negative; however, also exempted people have to &lt;strong&gt;self-quarantine for 10 days&lt;/strong&gt;. The humanitarian corridor for commuters transiting Hungary remains open.&lt;br /&gt;Foreign students&amp;nbsp;will have to produce negative tests to be allowed to study in Hungary.&amp;nbsp;Hungarian citizens returning from high-risk countries will have to quarantine, unless they provide&amp;nbsp;the negative&amp;nbsp;results of 2 PCR tests&amp;nbsp;not older than five days and taken with a time difference of 48 hours. It is possible to perform the 2 PCR tests upon arrival in Hungary as well.&amp;nbsp;Those who can prove with either a Hungarian or English language document that they have recovered from COVID-19 in the past 6 months (e.g.: PCR test results, verification by a health service provider or authority) can enter Hungary without restrictions.&lt;/p&gt;&lt;h3&gt;&lt;strong&gt;Find out more:&lt;/strong&gt;&lt;/h3&gt;&lt;p&gt;&lt;a href="https://konzuliszolgalat.kormany.hu/index" target="_blank" rel="noopener"&gt;Consular Services&lt;/a&gt; (Hungarian)&lt;br /&gt;&lt;a href="https://www.bud.hu/en/covid_19/information_on_entering_and_leaving_hungary" target="_blank" rel="noopener"&gt;Information from Budapest Airport&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="https://koronavirus.gov.hu/virusrol" target="_blank" rel="noopener"&gt;Info Coronavirus&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Iceland adopts &lt;a href="https://www.landlaeknir.is/um-embaettid/greinar/grein/item39194/Skilgreind-svaedi-med-smitahaettu---Defined-areas-with-risk-of-infection-(27-02-2020)" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Iceland are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;From 1 May 2021, travel restrictions will be based on the EU Traffic Lights map. From that time, travellers from low-risk areas (green and yellow) will be exempt from quarantine measures if they present a negative PCR result at the border.&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.landlaeknir.is/um-embaettid/greinar/grein/item39194/Skilgreind-svaedi-med-smitahaettu---Defined-areas-with-risk-of-infection-(27-02-2020)" target="_blank" rel="noopener"&gt;All countries and territories of the world are currently classified as risk areas&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to departure&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Additionally, all passengers arriving in Iceland must undergo two more PCR tests: one upon arrival, and another one 5-6 days later.&lt;/p&gt;&lt;p&gt;Those who test negative in the second PCR test are no longer submitted to special precautions. Those who test positive must self-isolate.&lt;/p&gt;&lt;p&gt;Children born in 2005 and later are exempted.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; &lt;strong&gt; Provisions for vaccinated people&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;Those who provide valid proof of having been vaccinated against COVID-19, are not required to provide a PCR-test prior to boarding and are also exempt from screening and quarantine measures at the border. &lt;br /&gt;The same applies to those who can provide proof of prior infection.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All arriving passengers have to submit to a PCR test upon arrival, followed by a &lt;strong&gt;5-day&lt;/strong&gt; quarantine and a second PCR test.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; &lt;strong&gt; Provisions for vaccinated people&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;Those who provide valid proof of having been vaccinated against COVID-19 are not required to provide a PCR-test prior to boarding, and are also exempt from screening and quarantine measures at the border. The same applies to those who can provide proof of prior infection.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All passengers born before 2005 are required to fill out a &lt;a href="http://www.covid.is/english" target="_blank" rel="noopener"&gt;pre-registration form&lt;/a&gt; before departure to Iceland, which requires them to provide personal details and contact information, flight information, travel dates, address(es) during their stay in Iceland and information on countries they have visited before arrival. &lt;br /&gt;Passengers are also encouraged to download and use the COVID-19 app Rakning C-19, which contains important information on COVID-19 and how to contact the health care service in Iceland.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.covid.is/categories/tourists-travelling-to-iceland" target="_blank" rel="noopener"&gt;www.covid.is&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.government.is/news/article/2021/02/16/Travelers-required-to-present-negative-PCR-test-before-boarding-/" target="_blank" rel="noopener"&gt;Entry rules from 16.2.2021&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.landlaeknir.is/um-embaettid/greinar/grein/item44162/Certificate-of-vaccination-against-COVID-19-accepted-at-the-border" target="_blank" rel="noopener"&gt;Certificates of vaccination accepted at the border for exemption of border measures due to COVID-19&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.ferdamalastofa.is/is/um-ferdamalastofu/frettir/category/1/er-thinn-gististadur-tilbuinn-ad-taka-a-moti-gestum-i-sottkvi" target="_blank" rel="noopener"&gt;List of accommodations that receive guests for quarantine&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.landlaeknir.is/servlet/file/store93/item42645/Instructions%20for%20travellers%20in%20quarantine%2015.08.2020.pdf" target="_blank" rel="noopener"&gt;Instructions for quarantine&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -436,6 +487,9 @@
   </si>
   <si>
     <t>Regions and autonomous provinces may anticipate or postpone the opening of different activities, taking into account their compatibility with the development of the contagion. The Presidents of the regions decide on the planning of local public transport services (bus, metro, tram), to avoid overcrowding of the means of transport in the daily time slots with the greatest presence of passengers. The minister of infrastructure and transport, in agreement with the minister of health, may order reductions, suspensions or limitations in transport services, including international, automotive, rail, air, sea and inland waters transport.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.italia.it/en/useful-info/guidance-standards-for-hospitality-reopening.html"&gt;www.italia.it&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;p class="border"&gt;Latvia adopts &lt;a href="https://www.spkc.gov.lv/lv/valstu-saslimstibas-raditaji-ar-covid-19-0" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Latvia are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.mfa.gov.lv/en/news/latest-news/67449-from-11-to-25-february-only-essential-travel-to-latvia-permitted" target="_blank" rel="noopener"&gt;From 11 February, only essential travel to Latvia is permitted&lt;/a&gt;. Entry to Latvia from EU Member States, the European Economic Area or the Swiss Confederation is permitted for the following urgent and essential reasons only:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;work;&lt;/li&gt;&lt;li&gt;training, studies;&lt;/li&gt;&lt;li&gt;family reunion;&lt;/li&gt;&lt;li&gt;in order to receive medical services;&lt;/li&gt;&lt;li&gt;transit;&lt;/li&gt;&lt;li&gt;accompanying a minor;&lt;/li&gt;&lt;li&gt;return to one's permanent place of residence;&lt;/li&gt;&lt;li&gt;attending a funeral.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;br /&gt;Accepted test: molecular (PCR)&lt;/p&gt;&lt;p&gt;Children aged 11 and under are exempted.&lt;/p&gt;&lt;p&gt;Travellers who have already contracted the COVID-19 coronavirus will need to show a doctor's note attesting it.&lt;/p&gt;&lt;p&gt;If a traveller is unable to show a test result (printed or on an electronic device), or a note from the doctor, the traveller will not be allowed to board the plane, train, bus, ferry, or other means of transportation. The test result or the note from the doctor must be in English, French, Russian, or in an official language of the country from which they are beginning their trip to Latvia.&lt;/p&gt;&lt;p&gt;This requirement also applies to those arriving in Latvia in a personal vehicle.&lt;/p&gt;&lt;p&gt;The negative COVID-19 test results must be indicated in the &lt;a class="external-link" href="https://covidpass.lv/en/" target="_blank" rel="noopener"&gt;Covidpass.lv&lt;/a&gt; form, which will be checked by the State Border Guard and police officers.&lt;/p&gt;&lt;p&gt;Persons entering Latvia to perform their job duties or travelling to or from their place of work, and employees of commercial transport companies are exempt from the COVID-19 test requirement.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All passengers arriving from countries in which the 14-day cumulative number of COVID-19 cases has exceeded the threshold of 50 per 100,000 inhabitants must complete a &lt;strong&gt;10-day mandatory quarantine&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Data on the incidence of COVID-19 cases in the EU and third countries is updated every Friday on the &lt;a class="external-link" href="https://www.spkc.gov.lv/lv/valstu-saslimstibas-raditaji-ar-covid-19-0" target="_blank" rel="noopener"&gt;website of Latvia&amp;rsquo;s Centre for Disease Prevention and Control.&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Particular groups of persons (for example, health and social workers, teachers) who intend to work in Latvia have to self-isolate for 14 days.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers must fill in an electronic confirmation form on the &lt;a class="external-link" href="https://covidpass.lv/en/" target="_blank" rel="noopener"&gt;Covidpass.lv website&lt;/a&gt;. Electronic confirmation must be completed no earlier than 48 hours before crossing the Latvian border.&lt;/p&gt;&lt;p&gt;Documents proving the purpose of entry will have to be presented to the State Border Guard or the State Police. It will not be possible to complete registration with the covidpass.lv website without entering a self-certification that any of the above-mentioned reasons exist.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.spkc.gov.lv/lv/valstu-saslimstibas-raditaji-ar-covid-19-0" target="_blank" rel="noopener"&gt;Latvian Centre for Disease Prevention and Control&lt;/a&gt;&lt;br /&gt;&lt;a href="https://covid19.gov.lv/en" target="_blank" rel="noopener"&gt;covid19.gov.lv&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.latvia.travel/en/article/covid-19-and-travelling-latvia" target="_blank" rel="noopener"&gt;Latvia Travel&lt;/a&gt;&lt;/p&gt;</t>
@@ -448,6 +502,9 @@
 &lt;p&gt;The list of affected countries can be found on the website of the &lt;strong&gt;&lt;a href="https://www.spkc.gov.lv/lv/valstu-saslimstibas-raditaji-ar-covid-19-0" target="_blank" rel="noopener"&gt;Latvian Centre for Disease Prevention and Control&lt;/a&gt;&lt;/strong&gt; &lt;br /&gt;&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://covid19.gov.lv/en"&gt;https://covid19.gov.lv&lt;/a&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Travelling to and from EU/EAA countries is in principle allowed. For further details, see the rules applicable to Switzerland, which apply to Liechtenstein as well. </t>
   </si>
   <si>
@@ -455,6 +512,9 @@
   </si>
   <si>
     <t>Hotels, holiday apartments, guesthouses, youth hostels, camping sites and cabins are open in compliance with hygiene and safety guidelines. Restaurant operations for hotel guests must be based on a protection concept. There is an obligation to wear a mask based on the hygiene regulations.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://tourismus.li/en/our-country/about-liechtenstein/current-information-on-covid-19-in-the-principality-of-liechtenstein/"&gt;Tourismus.li&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;p class="border"&gt;Lithuania adopts &lt;a href="https://nvsc.lrv.lt/en/information-on-covid-19/for-arrivals-from-abroad" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Lithuania are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers arriving from countries &lt;a href="https://nvsc.lrv.lt/en/information-on-covid-19/for-arrivals-from-abroad/list-of-countries-affected-by-covid-19-and-requirements-valid-until-9-march/list-10" target="_blank" rel="noopener"&gt;listed as risk areas&lt;/a&gt; are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Children aged 16 and under are exempt.&lt;/p&gt;&lt;p&gt;The certificate can be in one of the official languages of the European Union.&lt;/p&gt;&lt;p&gt;Travellers arriving by private transport should register for a test in Lithuania within 24 hours of arrival by calling the hotline +370 (5 2) 196 180.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; &lt;strong&gt; Provisions for vaccinated people&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;Travellers who have been fully vaccinated for COVID-19 are exempted from providing a negative COVID-19 test. A certificate of vaccination is needed.&lt;/p&gt;&lt;p&gt;Also, those holding a medical certificate confirming that they had coronavirus are exempt from testing and quarantine. The diagnosis should be confirmed by a positive PCR test, and maximum 180 days may have passed since the positive testing.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers arriving from countries that are listed as risk areas should &lt;a href="https://nvsc.lrv.lt/en/information-on-covid-19/for-arrivals-from-abroad/requirements-for-people-arriving-from-abroad-starting-from-january-25th" target="_blank" rel="noopener"&gt;self-isolate for 10 days&lt;/a&gt; from the day of arrival in the Republic of Lithuania (regardless of the negative test result). The isolation period may be shortened after a second negative PCR test performed no earlier than on day 7 of self-isolation (the test is carried out at own expenses).&lt;/p&gt;&lt;p&gt;Depending on the local epidemiological situation, travellers from some countries face stricter measures during the isolation period.&lt;/p&gt;&lt;p&gt;Persons arriving from countries where the spread of new virus variants has been detected must obtain &lt;a href="https://nvsc.lrv.lt/en/information-on-covid-19/for-arrivals-from-abroad/everything-you-need-to-know-about-isolation/when-are-you-allowed-to-leave-the-place-of-isolation" target="_blank" rel="noopener"&gt;the NPHC permission&lt;/a&gt; to leave the place of isolation for certain specified reasons. To leave Lithuania for the country of residence or work before the end of self-isolation period, a notification must be sent to &lt;a href="https://nvsc.lrv.lt/leave" target="_blank" rel="noopener"&gt;NPHC&lt;/a&gt; 24 hours before departure.&lt;/p&gt;&lt;p&gt;Travellers that can provide proof of full vaccination or recent recovery of COVID-19 infection are not required to quarantine.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory travel documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Every traveller returning to, or arriving by air, sea, or land, will have &lt;a href="https://keleiviams.nvsc.lt/en/form" target="_blank" rel="noopener"&gt;to fill in a form on the website of the National Public Health Centre&lt;/a&gt; and present the confirmation received, the QR code, at the time of boarding.&lt;/p&gt;&lt;p&gt;All persons arriving in Lithuania by car must register with the National Public Health Center within 12 hours of arrival.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://urm.lt/default/en/important-covid19" target="_blank" rel="noopener"&gt;Contact information&lt;/a&gt; for travellers&lt;br /&gt;&lt;a href="https://www.govilnius.lt/media-news/important-information-regarding-the-coronavirus" target="_blank" rel="noopener"&gt;Vilnius information for travellers&lt;/a&gt;&lt;br /&gt;&lt;a href="https://koronastop.lrv.lt/en/#news" target="_blank" rel="noopener"&gt;koronastop.lrv.lt&lt;/a&gt;&lt;/p&gt;</t>
@@ -470,12 +530,21 @@
 </t>
   </si>
   <si>
+    <t>&lt;a href="http://sam.lrv.lt/en/news/important-information-to-foreign-nationals-in-lithuania"&gt;Info Coronavirus&lt;/a&gt; &lt;br&gt; &lt;a href="http://koronastop.lrv.lt/"&gt;Official source of information by the Government of the Republic of Lithuania&lt;/a&gt; &lt;br&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Since 29 January, any person - regardless of nationality - arriving by air transport to the Grand Duchy of Luxembourg is subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt; (on paper or electronic document).&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;72 hours prior to departure&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Accepted test: &lt;strong&gt;PCR, TMA, LAMP, Antigen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;This obligation &lt;strong&gt;does not apply to travel by land&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Children aged 5 and under are exempted.&lt;/p&gt;&lt;p&gt;The negative test result must be presented, if necessary along with a translation, either in one of the administrative languages (Luxembourgish, French, German) of Luxembourg or in English. Documents in Italian, Spanish and Portuguese are also accepted.&lt;/p&gt;&lt;p&gt;The following persons are exempt from these obligations:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;People on duty employed in the transport sector and passengers in transit from the airport;&lt;/li&gt;&lt;li&gt;Persons making a return journey by air, for less than 72 hours, from the Grand Duchy to a country which is a member of the Schengen area or the European Union, provided they have not left the Schengen area or the territory of the EU Member States during this period;&lt;/li&gt;&lt;li&gt;Members of the diplomatic corps, personnel of international organizations and persons invited by these international organizations whose physical presence is required for the proper functioning of these organizations, military personnel, personnel in the field of development cooperation and humanitarian aid, and civil protection personnel in the exercise of their respective functions, provided that their stay in Luxembourg does not exceed 72 hours;&lt;/li&gt;&lt;li&gt;Persons who have had a recent SARS-CoV-2 infection within 3 months prior to travel and who have completed the applicable isolation period in the respective country with the disappearance of any symptoms of infection. These persons may present a medical certificate attesting to these facts, which allows them to board a flight to Luxembourg without having to undergo a new nucleic acid amplification test of SARS-CoV-2 viral RNA or of a viral antigen test.&lt;/li&gt;&lt;li style="list-style-type: none;"&gt;&amp;nbsp;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Entry to Luxembourg is not subject to a mandatory quarantine.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All passengers travelling by air are required to fill in a Passenger Locator Form.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;covid19.public.lu (&lt;a href="https://covid19.public.lu/en/travellers/visiting-luxembourg.html" target="_blank" rel="noopener"&gt;EN&lt;/a&gt; &amp;mdash; &lt;a href="https://covid19.public.lu/fr/voyageurs/visiter-luxembourg.html" target="_blank" rel="noopener"&gt;FR&lt;/a&gt; &amp;mdash; &lt;a href="https://covid19.public.lu/de/reisende/luxemburg-besuchen.html" target="_blank" rel="noopener"&gt;DE&lt;/a&gt;&amp;nbsp;&amp;mdash;&amp;nbsp;&lt;a href="https://covid19.public.lu/lb/reesen/letzebuerg-besichen.html" target="_blank" rel="noopener"&gt;LU&lt;/a&gt;)&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact Point for Luxembourg:&lt;br /&gt;&lt;/strong&gt;For important medical questions concerning COVID-19, the Health Helpline (247-65533) is available from Monday to Friday between 8:00 and 18:00; on weekends between 10:00 and 18:00. Additional hotlines and contacts are available (&lt;a href="https://covid19.public.lu/en/support/contact.html" target="_blank" rel="noopener"&gt;EN&lt;/a&gt; &amp;mdash; &lt;a href="https://covid19.public.lu/fr/support/contact.html" target="_blank" rel="noopener"&gt;FR&lt;/a&gt; &amp;mdash; &lt;a href="https://covid19.public.lu/de/support/contact.html" target="_blank" rel="noopener"&gt;DE&lt;/a&gt;&amp;nbsp;&amp;mdash;&amp;nbsp;&lt;a href="https://covid19.public.lu/lb/support/contact.html" target="_blank" rel="noopener"&gt;LU&lt;/a&gt;).&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Isolation or quarantine for travellers arriving from abroad are &lt;strong&gt;not required.&amp;nbsp;&amp;nbsp;&lt;/strong&gt;A 10-days isolation will only be applied in the event of a positive COVID-19 test result.&amp;nbsp;Passengers arriving by air can be tested free of charge at Luxembourg Airport on a voluntary basis or&amp;nbsp;at one of the eight test stations in the country through appointment on &lt;a href="https://covid19.public.lu/en/testing.html" target="_blank" rel="noopener"&gt;www.covidtesting.lu&lt;/a&gt;, provided that a&amp;nbsp;Luxembourg social security number (CNS number) is available.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Any third-country national aged 11 or older who do not belong to the list of low-risk third countries, must, at the time of boarding, present the results of a negative test rsult, carried out within 72 hours befor entering the territory.&lt;/p&gt;&lt;h3&gt;Find out more:&lt;/h3&gt;&lt;p&gt;&lt;a href="https://covid19.public.lu/en/travellers/visiting-luxembourg.html" target="_blank" rel="noopener"&gt;www.covid19.public.lu&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="https://transports.public.lu/fr/actualites/2020/03-mars-covid-19-transports-modifications-mesures-coronavirus.html" target="_blank" rel="noopener"&gt;Info on transport&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="http://www.covid19.lu" target="_blank" rel="noopener"&gt;www.covid19.lu&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Malta adopts &lt;a href="https://deputyprimeminister.gov.mt/en/health-promotion/covid-19/Pages/travel.aspx" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Malta are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;&lt;span lang="EN-GB"&gt;Entry restrictions depend on whether the traveller is coming from a country that is included among Malta&amp;rsquo;s corridor countries.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span lang="EN-GB"&gt;Travellers coming from one of Malta&amp;rsquo;s corridor countries are allowed to enter the country, while travellers coming from countries on the "Red" list are allowed to enter Malta as long as they have stayed in a "corridor country" for a minimum of 14 days. People coming to Malta cannot transit through airports located outside the list of corridor countries.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;span lang="EN-GB"&gt;All travellers coming from a corridor country or allowed to enter Malta are subject to the requirement for a&amp;nbsp;&lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within&amp;nbsp;&lt;strong&gt;72 hours prior to arrival.&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span lang="EN-GB"&gt;For increased security, random swab tests may be conducted on passengers upon arrival at the Malta International Airport.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;span lang="EN-GB"&gt;Travellers arriving from corridor countries who fail to produce a Covid-19 test may be tested upon arrival in Malta and may be subject to quarantine.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All persons travelling to Malta must complete the &lt;strong&gt;&lt;a href="https://mia-prod-s3-cdn.s3.amazonaws.com/wp-content/uploads/2020/07/Public-Health-Travel-Declaration-Form-2020_RZA_updated.pdf" target="_blank" rel="noopener"&gt;Public Health Travel Declaration&lt;/a&gt;&lt;/strong&gt; and the &lt;strong&gt;&lt;a href="https://mia-prod-s3-cdn.s3.amazonaws.com/wp-content/uploads/2020/06/Public-Health-Passenger-Locator-Form.pdf" target="_blank" rel="noopener"&gt;Passenger Locator Form&lt;/a&gt;&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://deputyprimeminister.gov.mt/en/health-promotion/covid-19/Pages/travel.aspx" target="_blank" rel="noopener"&gt;Health.gov.mt&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact Points for Malta:&lt;br /&gt;&lt;/strong&gt;Covid-19 Helpline: 111&lt;br /&gt;Email:&lt;a href="mailto:covid19.health@gov.mt%E2%80%8B"&gt; covid19.health@gov.mt​​&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -483,6 +552,9 @@
   </si>
   <si>
     <t>&lt;p&gt;The mandatory quarantine was lifted for countries with which Malta established a&amp;nbsp;&lt;strong&gt;&lt;a href="https://www.visitmalta.com/en/covid-19" target="_blank" rel="noopener"&gt;Public Health Corridor (PHC)&lt;/a&gt;&lt;/strong&gt;.&lt;br /&gt;From other countries, only essential travel may be allowed.&lt;/p&gt;&lt;h3&gt;Find out more:&lt;/h3&gt;&lt;p&gt;&lt;a href="https://deputyprimeminister.gov.mt/en/health-promotion/covid-19/Pages/quarantine.aspx" target="_blank" rel="noopener"&gt;Mandatory quarantine&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://deputyprimeminister.gov.mt/en/health-promotion/covid-19/Pages/landing-page.aspx" target="_blank" rel="noopener"&gt;Info Coronavirus&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p class="border"&gt;The Netherlands adopts &lt;a href="https://www.government.nl/topics/coronavirus-covid-19/visiting-the-netherlands-from-abroad/eu-list-of-safe-countries" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for the Netherlands are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;For some areas of the Caribbean parts of the Kingdom certain specific restrictions apply, please see &lt;a href="http://www.nederlandwereldwijd.nl" target="_blank" rel="noopener"&gt;www.nederlandwereldwijd.nl&lt;/a&gt; (in Dutch).&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;If you are travelling to the Netherlands by aircraft, ship, train or coach from a high-risk area, you are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Accepted tests: molecular NAAT test (PCR, RT PCR, LAMP, TMA or mPOCT).&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;24 hours prior to boarding&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Alternatively, you can present both a negative NAAT (PCR) test result based on a sample collected no more than &lt;strong&gt;72 hours before arrival&lt;/strong&gt; in the Netherlands and a &lt;strong&gt;negative rapid test&lt;/strong&gt; result based on a sample collected no more than &lt;strong&gt;24 hours before boarding&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Certain exemptions apply, including for diplomats.&amp;nbsp;&lt;a href="https://www.government.nl/topics/coronavirus-covid-19/visiting-the-netherlands-from-abroad/mandatory-negative-test-results-and-declaration/requirements-rapid-test-result" target="_blank"&gt;The rapid test must meet certain requirements&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Children aged 12 and under are exempted.&lt;/p&gt;&lt;p&gt;A negative COVID-19 test result is &lt;strong&gt;not mandatory&lt;/strong&gt; if you are travelling to the Netherlands by car. The same applies to travellers on a regional, cross-border bus that remains within 30 km of the Dutch border on both sides, as well as those travelling on regional cross-border trains.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers must complete a &lt;a href="https://www.government.nl/topics/coronavirus-covid-19/visiting-the-netherlands-from-abroad/self-quarantine" target="_blank"&gt;&lt;strong&gt;10-day mandatory quarantine&lt;/strong&gt;&lt;/a&gt;.&lt;br /&gt;The quarantine period may be shortened by taking a PCR test no less than 5 days after arrival. If the result of this test is negative, the period of quarantine can end.&lt;/p&gt;&lt;p&gt;You can self-quarantine at home or in temporary or holiday accommodation. To prepare for your journey you can do the &lt;a href="https://reizentijdenscorona.rijksoverheid.nl/en" target="_blank" rel="noopener"&gt;Quarantine Check for Travellers&lt;/a&gt;. This is a checklist of steps to take before and after your journey.&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.government.nl/topics/coronavirus-covid-19/visiting-the-netherlands-from-abroad/self-quarantine/exemptions" target="_blank" rel="noopener"&gt;Some travellers do not have to self-quarantine&lt;/a&gt;, for example, workers in the transport sector, and those travelling from low-risk countries.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;If you are travelling by air you must &lt;a href="https://www.government.nl/topics/coronavirus-covid-19/documents/publications/2020/07/07/information-for-passengers-flying-to-and-from-the-netherlands" target="_blank" rel="noopener"&gt;fill in a health declaration&lt;/a&gt; and carry it with you. Some airlines allow you to complete this health declaration digitally at check-in.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.government.nl/topics/coronavirus-covid-19" target="_blank" rel="noopener"&gt;Dutch government on COVID-19&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.government.nl/topics/coronavirus-covid-19/visiting-the-netherlands-from-abroad/mandatory-negative-test-results-and-declaration/requirements-pcr-test-result" target="_blank" rel="noopener"&gt;Requirements for COVID-19 tests&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.government.nl/topics/coronavirus-covid-19/tourism-in-the-netherlands" target="_blank" rel="noopener"&gt;FAQs about Tourism&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.netherlandsworldwide.nl/latest/news/2020/06/15/going-on-holiday-abroad-countries-whose-borders-are-open" target="_blank" rel="noopener"&gt;Netherlandsworldwide.nl&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Contact point:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.government.nl/contact/contact-form" target="_blank" rel="noopener"&gt;Contact form&lt;/a&gt;&lt;/p&gt;</t>
@@ -495,6 +567,9 @@
 &lt;p&gt;Once in the Netherlands, you can self-quarantine at home or in temporary or holiday accommodation. The government provides a list of &lt;a href="https://www.government.nl/topics/coronavirus-covid-19/tackling-new-coronavirus-in-the-netherlands/travel-and-holidays/self-quarantine" target="_blank" rel="noopener"&gt;countries concerned&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;If your planned journey to the Netherlands takes you through an area to which the self-quarantine advice applies, try to change your route or flight if possible. If this is not possible, for instance because the travel advisory changed just before you were due to travel, you should self-quarantine for 10 days upon your arrival in the Netherlands. There is one exception. If you drive in a private vehicle and without stopping through an area to which the Dutch self-quarantine advice applies, you do not have to self-quarantine when you arrive in the Netherlands. However, if you stop for any amount of time, even just for fuel, you must self-quarantine.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://www.rivm.nl/coronavirus-covid-19/actueel"&gt;Info Coronavirus&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;At present, most people cannot travel to Norway without belonging to one of the exceptions. This applies to citizens of all countries, including citizens from the EU/EEA and Nordic citizens. This includes:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Tourists&lt;/li&gt;&lt;li&gt;Family members not listed under the Exceptions: close family members section&lt;/li&gt;&lt;li&gt;boyfriend/girlfriend or fianc&amp;eacute;;&lt;/li&gt;&lt;li&gt;EU/EEA citizens (including Nordic citizens) who are going to work or study in Norway, and who do not belong to any of the exceptions listed below&lt;/li&gt;&lt;li&gt;persons who have been granted a residence permit to work or study in Norway and who are not already resident here&lt;/li&gt;&lt;li&gt;business travelers&lt;/li&gt;&lt;li&gt;foreigners who have been granted a Schengen visa, but who do not belong to any of the exceptions below&lt;/li&gt;&lt;li&gt;persons who have leisure property in Norway, but are not resident here&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;a href="https://www.udi.no/en/about-the-corona-situation/entry-to-norway-for-all-citizens/#link-19307" target="_blank"&gt;List of exceptions (UDI.no)&lt;/a&gt;&lt;/p&gt;&lt;p&gt;The testing, travel registration, quarantine, and quarantine hotel requirements will remain in force for travellers who are exempt from the entry restrictions.&lt;/p&gt;&lt;p class="border"&gt;Vaccination does not currently affect quarantine requirements or test recommendations.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers (including those who are resident in Norway) allowed to enter Norway from countries or regions that are defined as high-risk areas must complete a &lt;strong&gt;10-day quarantine&lt;/strong&gt; in a designated hotel. When you arrive in Norway from a high-risk country, you should travel directly to an appropriate place to stay during the quarantine period, preferably by private transport. If you need to use public transport, wearing &lt;a href="https://textfancy.com/text-faces/" target="_blank"&gt;a face&lt;/a&gt; mask throughout the journey is strongly required.&lt;/p&gt;&lt;p&gt;The quarantine period may be shortened by taking a second PCR test no less than 7 days after arrival. If the result of this test is negative, the period of quarantine can end.&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.fhi.no/en/op/novel-coronavirus-facts-advice/facts-and-general-advice/travel-advice-COVID19/#areas-with-sufficiently-low-transmission" target="_blank"&gt;Entry quarantine upon arrival in Norway from red countries/regions&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers from high-risk areas are subject to the requirement for a pre-departure negative COVID-19 test. Approved test methods are PCR or rapid antigen test.&lt;br /&gt;The test must be taken within 24 hours prior to arrival. For people arriving by plane, 24 hours apply before the scheduled departure time of the first flight.&lt;/p&gt;&lt;p&gt;The certificate must be in Norwegian, Swedish, Danish, English, French or German. Foreign nationals who cannot document a negative Covid-19 test upon arrival can be refused entry to Norway.&lt;/p&gt;&lt;p&gt;This requirement does not apply to Norwegians, people living in Norway, people in transit or people who frequently cross the border from Sweden and Finland for work purposes.&lt;/p&gt;&lt;p&gt;The requirement does not apply to people who can document with an approved laboratory method that they have undergone COVID-19 during the last six months.&lt;/p&gt;&lt;p&gt;Test upon arrival: Anyone who has stayed in an area with a quarantine duty during the last 10 days before arrival has a duty to be tested at the border crossing point upon arrival in Norway. The test must be either PCR or rapid antigen test. In the case of a positive rapid antigen test, the person must take a PCR test within 24 hours of arrival.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Additional Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Everyone travelling to Norway must complete the &lt;a href="https://reg.entrynorway.no/?lang=en" target="_blank" rel="noopener"&gt;registration form&lt;/a&gt; prior to crossing the border. This also applies to Norwegian citizens.&lt;/p&gt;&lt;p&gt;After completing the digital registration, you will receive a receipt&amp;nbsp;which you must then present to the police at the border control. You cannot register your journey&amp;nbsp;any earlier than 72 hours prior to the time of arrival.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.helsenorge.no/en/coronavirus/international-travels/#rules-upon-entry-into-norway" target="_blank"&gt;Travel advice - helsenorge.no&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.helsenorge.no/en/coronavirus/international-travels/#rules-for-travellers-arriving-from-great-britain-south-africa-ireland-the-netherlands-austria-portugal-or-brazil" target="_blank" rel="noopener"&gt;International Travel rules&lt;/a&gt;&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.fhi.no/en/op/novel-coronavirus-facts-advice/facts-and-general-advice/travel-advice-COVID19/#areas-with-sufficiently-low-transmission" target="_blank" rel="noopener"&gt;Entry rules&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.fhi.no/en/" target="_blank" rel="noopener"&gt;https://www.fhi.no/en/&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -511,6 +586,9 @@
   </si>
   <si>
     <t>&lt;p&gt;The obligation to undergo quarantine is imposed on persons crossing the borders of the Republic of Poland that are also the external borders of the EU, when travelling to their place of residence or stay. Travellers crossing the internal EU borders of the Republic of Poland do not have to undergo a mandatory quarantine.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;Further information is available at: &lt;a href="https://www.gov.pl/web/coronavirus/temporary-limitations" target="_blank" rel="noopener"&gt;Coronavirus: temporary limitations&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;a href="https://www.gov.pl/web/coronavirus" target="_blank" rel="noopener"&gt;Info Covid-19&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p class="border"&gt;Portugal adopts its own national classification of risk areas, hence travel restrictions for Portugal are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;From 1 May, road traffic between Portugal and Spain is possible again without restrictions.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to departure&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Children aged 2 and under are exempted.&lt;br /&gt;&lt;br /&gt;More details are available at &lt;a title="www.sef.pt" href="https://imigrante.sef.pt/en/covid-19/faqs/#1613416901602-dc3c0f7a-b3f2" target="_blank" rel="noopener"&gt;www.sef.pt&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from high-risk countries (with an incidence rate of 500 cases or more per 100,000 inhabitants in the last 14 days) must complete a &lt;strong&gt;14-day isolation period&lt;/strong&gt; after entry to mainland Portugal. Isolation should take place either at home or at a place indicated by the health authorities.&lt;/p&gt;&lt;p&gt;Isolation does not apply to passengers on essential travel and whose length of stay in the national territory, certified by a return ticket, does not exceed 48 hours.&lt;/p&gt;&lt;p&gt;More details are available at &lt;a title="www.sef.pt" href="https://imigrante.sef.pt/en/covid-19/faqs/#1613416901602-dc3c0f7a-b3f2" target="_blank" rel="noopener"&gt;www.sef.pt&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Specific measures for Madeira and Azores&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Passengers flying to the &lt;strong&gt;Madeira&lt;/strong&gt; archipelago have to present a negative test to COVID-19 carried out within 72 hours prior to departure or they can perform it upon arrival. Specific information for Madeira islands: &lt;a href="http://www.visitmadeira.pt/en-gb/useful-info/corona-virus-(covid-19)/information-to-visitors-(covid-19)" target="_blank" rel="noopener"&gt;EN&lt;/a&gt; - &lt;a href="http://www.visitmadeira.pt/pt-pt/info-uteis/corona-virus-(covid-19)/informacoes-aos-visitantes-(covid-19)" target="_blank" rel="noopener"&gt;PT&lt;/a&gt; - &lt;a href="http://www.visitmadeira.pt/es-es/informacion-util/corona-virus-(covid-19)/informacion-para-los-visitantes-(covid-19)" target="_blank" rel="noopener"&gt;ES&lt;/a&gt; - &lt;a href="http://www.visitmadeira.pt/de-de/nutzliche-info/corona-virus-(covid-19)/informationen-fur-besucher-und-besucherinnen-(covid-19)" target="_blank" rel="noopener"&gt;DE&lt;/a&gt; - &lt;a href="http://www.visitmadeira.pt/fr-fr/infos-utiles/corona-virus-(covid-19)/informations-aux-voyageurs-(covid-19)" target="_blank" rel="noopener"&gt;FR&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Specific measures for &lt;strong&gt;Azores &lt;/strong&gt;archipelago: Passengers travelling to the Autonomous Region of the Azores by air from areas considered by the World Health Organization to be zones of active community transmission are required to present, prior to boarding, proof of a negative result to a Covid-19 test.&lt;/p&gt;&lt;p&gt;Accepted test: RT-PCR test taken &lt;strong&gt;within 72 hours before departure&lt;/strong&gt;. The document issued by the laboratory that performs the SARS-CoV-2 diagnostic test must contain the identification of the person tested, the laboratory, the date of the test and the result of the test.&lt;/p&gt;&lt;p&gt;This requirement does not apply to passengers aged 12 years or less and to exceptional humanitarian situations authorized by the Regional Health Authority.&lt;/p&gt;&lt;p&gt;More information for the Azores are available at &lt;a href="https://covid19.azores.gov.pt/?page_id=5509" target="_blank" rel="noopener"&gt;DestinoSeguro.azores.gov.pt&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://imigrante.sef.pt/en/covid-19/faqs/#1596230859073-a1cdfe6a-4ada" target="_blank" rel="noopener"&gt;Portuguese Immigration Service website FAQs&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.visitportugal.com/en/node/421175" target="_blank" rel="noopener"&gt;www.visitportugal.com&lt;/a&gt;&lt;/p&gt;</t>
@@ -531,6 +609,9 @@
 PT&lt;/a&gt;-&lt;a href="http://www.visitmadeira.pt/es-es/informacion-util/corona-virus-(covid-19)/informacion-para-los-visitantes-(covid-19)"&gt;ES&lt;/a&gt;-&lt;a href="http://www.visitmadeira.pt/de-de/nutzliche-info/corona-virus-(covid-19)/informationen-fur-besucher-und-besucherinnen-(covid-19)"&gt;DE&lt;/a&gt;-&lt;a href="http://www.visitmadeira.pt/fr-fr/infos-utiles/corona-virus-(covid-19)/informations-aux-voyageurs-(covid-19)"&gt;FR&lt;/a&gt; &lt;br&gt;&lt;br&gt;&lt;a href="https://covid19.azores.gov.pt"&gt;Specific Information for Azores&lt;/a&gt; &lt;br&gt;&lt;br&gt;Additional information may be found at &lt;a href="https://www.visitportugal.com/en/node/421175"&gt;www.visitportugal.com&lt;/a&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://covid19.min-saude.pt/"&gt;Info Coronavirus&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Romania adopts its &lt;a href="https://www.cnscbt.ro/index.php/liste-zone-afectate-covid-19/" target="_blank" rel="noopener"&gt;own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Romania are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers from high-risk countries are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Children aged 3 and under are exempted.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; &lt;strong&gt; Provisions for vaccinated people&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;Travellers who have received their final vaccination for COVID-19 more than 10 days ago, are exempt from quarantine. It is required to show proof of vaccination, including the dates.&lt;/p&gt;&lt;p&gt;Also, travellers that have been confirmed positive for SARS-CoV-2 disease in the last 90 days prior to entry into the country are exempt. Proof must be provided in the form of medical documents (positive PCR test at the date of diagnosis, hospital discharge ticket or test that proves the presence of IgG antibodies performed no more than 14 days before entry into the country).&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers coming from &lt;a href="https://www.cnscbt.ro/index.php/liste-zone-afectate-covid-19/" target="_blank" rel="noopener"&gt;countries or areas that are considered at high epidemiological risk&lt;/a&gt; will also be subject to a &lt;strong&gt;14-day quarantine&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The quarantine must take place at the person's home, at a declared location or, as the case may be, at a dedicated location designated by the authorities.&lt;/p&gt;&lt;p&gt;The quarantine period may be shortened by taking a second RT-PCR test no less than 8 days after arrival. If the result of this test is negative, the period of quarantine can end on day 10.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; &lt;strong&gt; Provisions for vaccinated people&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;Travellers who have received their final vaccination for COVID-19 more than 10 days ago, are exempt from quarantine. It is required to show proof of vaccination, including the dates.&lt;/p&gt;&lt;p&gt;Also, travellers that have been confirmed positive for SARS-CoV-2 disease in the last 90 days prior to entry into the country are exempt. Proof must be provided in the form of medical documents (positive PCR test at the date of diagnosis, hospital discharge ticket or test that proves the presence of IgG antibodies performed no more than 14 days before entry into the country).&lt;/p&gt;&lt;p&gt;Travellers who remain in Romania for less than 3 days (72 hours) and present a negative test for SARS-CoV-2, performed no more than 48 hours before entering the national territory, are exempted from the obligation to quarantine.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;No additional documentation required.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://stirioficiale.ro/informatii" target="_blank" rel="noopener"&gt;General information&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.cnscbt.ro/" target="_blank" rel="noopener"&gt;National health institute&lt;/a&gt;&lt;/p&gt;&lt;p class="border"&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
@@ -540,12 +621,18 @@
     <t>&lt;p&gt;The quarantine measure applies to all persons arriving from an international journey from countries / areas with high epidemiological risk and who have the right to enter the national territory, respectively: &lt;strong&gt;Romanian citizens&lt;/strong&gt;, &lt;strong&gt;citizens of European Union Member States&lt;/strong&gt;, &lt;strong&gt;European Economic Area&lt;/strong&gt; or the &lt;strong&gt;Swiss Confederation&lt;/strong&gt;, and persons who fall under one of the exceptions provided by Decree no. 553 of 15.07.2020, Annex 3, art. 2, paragraph 2, letters a) - l).&lt;/p&gt;&lt;p&gt;The quarantine must take place at the person's home, at a declared location or, as the case may be, at a dedicated location designated by the authorities.&lt;/p&gt;&lt;p&gt;Travellers who&amp;nbsp;remain in Romania for less than 3 days (72 hours) and present a negative test for SARS-CoV-2, performed no more than 48 hours before entering the national territory, are exempted from the obligation to self-isolate.&lt;/p&gt;&lt;p&gt;The quarantine may be reduced to 10 days if a test for SARS-CoV-2, performed on the 8th day of quarantine, provides a negative result.&lt;/p&gt;&lt;h3&gt;Find out more:&lt;/h3&gt;&lt;p&gt;&lt;a href="http://www.cnscbt.ro/index.php/liste-zone-afectate-covid-19/2052-lista-state-cu-risc-epidemiologic-ridicat-26-10-2020/file" target="_blank" rel="noopener"&gt;List of affected areas&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="http://www.mae.ro/node/51759" target="_blank" rel="noopener"&gt;List of countries imposing restrictions on travellers coming from Romania&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="http://www.mae.ro/node/51982" target="_blank" rel="noopener"&gt;Travel warnings (Rest of the World)&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="http://www.ms.ro/" target="_blank" rel="noopener"&gt;Info on Covid-19&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Slovakia adopts &lt;a href="https://korona.gov.sk/en/travelling-to-slovakia-and-covid19/#safe-countries" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Slovakia are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers arriving by land or air must complete a &lt;strong&gt;14-day quarantine&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;The quarantine period may be shortened by taking an RT-PCR test no less than 8 days after arrival. If the result of this test is negative, the period of quarantine can end.&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt;Vaccinated people and persons who have recovered from COVID-19 do not have to wait 8 days and may undergo the RT-PCR test at any time after their arrival.&lt;/p&gt;&lt;p&gt;Children under the age of 10 will have to stay in isolation as long as the other members of their common household are in quarantine.&lt;/p&gt;&lt;p&gt;Exceptions to the quarantine rule apply to commuters working in neighbouring countries (within 100 km from the border), citizens of the Slovak Republic who live in the territory of a neighbouring country within 100 km from an open border crossing point, students, caregivers, people employed in the cultural sector, the media and the like, as well as employees of diplomatic missions and international organisations enjoying diplomatic immunity.&lt;/p&gt;&lt;p&gt;All above-stated groups are required to present a negative result of an antigenic or PCR test, not older than 7 days, each time they enter Slovakia.&lt;/p&gt;&lt;p&gt;A detailed list of exceptions is available at: &lt;a href="https://korona.gov.sk/en/travelling-to-slovakia-and-covid19/" target="_blank" rel="noopener"&gt;Travel to the Slovak Republic&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from EU or Schengen Associated countries, who have either:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;recovered from COVID-19 within the last 180 days&lt;/li&gt;&lt;li&gt;or been vaccinated against Covid-19, with their second dose received more than 14 ago in the case of mRNA vaccines (Pfizer/BioNTech and Moderna), or their first dose received more than 4 weeks ago in the case of vector vaccines (AstraZeneca)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;can enter Slovakia if they present a negative Covid-19 &lt;strong&gt;antigen test no older than 48 hours&lt;/strong&gt; or of a negative &lt;strong&gt;RT-PCR test no older than 72 hours&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Additionally, they will have to quarantine until they take a second test, at their expenses, and they result negative again.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers are obliged to register at &lt;a href="https://korona.gov.sk/en/ehranica/" target="_blank" rel="noopener"&gt;korona.gov.sk/ehranica&lt;/a&gt; before arriving in Slovakia. Air travellers must also fill in a &lt;a href="https://www.mindop.sk/covid/forms/edit/b8c8f132ecc375cf554b330056885e42226c" target="_blank" rel="noopener"&gt;Passenger Locator Form&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://korona.gov.sk/en/travelling-to-slovakia-and-covid19/" target="_blank" rel="noopener"&gt;https://korona.gov.sk/en/travelling-to-slovakia-and-covid19/&lt;/a&gt;&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.mzv.sk/web/en/covid-19" target="_blank" rel="noopener"&gt;https://www.mzv.sk/web/en/covid-19&lt;/a&gt;&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;As of 24.10.2020, a partial lockdown and partial curfew (apart between 1:00 and 5:00) are in place, with some exceptions. The following activities are still allowed:&amp;nbsp;&lt;/p&gt;&lt;p&gt;-&amp;nbsp;trips to work and groceries;&lt;/p&gt;&lt;p&gt;- walks in parks;&lt;/p&gt;&lt;p&gt;- medical visits.&lt;/p&gt;&lt;p&gt;Stricter curfew measures are imposed in &lt;strong&gt;Orava&lt;/strong&gt; and &lt;strong&gt;Bardejov&lt;/strong&gt; regions.&lt;/p&gt;&lt;/p&gt;&lt;h3&gt;Find out more:&lt;/h3&gt;&lt;p&gt;&lt;a href="https://korona.gov.sk/zakaz-vychadzania/" target="_blank" rel="noopener"&gt;Curfew&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;a href="https://korona.gov.sk/en/" target="_blank" rel="noopener"&gt;korona.gov.sk&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Slovenia adopts its own national classification of risk areas, hence travel restrictions for Slovenia are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;Travellers from countries that are NOT explicitly named on the &lt;a href="https://www.gov.si/en/topics/coronavirus-disease-covid-19/border-crossing/" target="_blank" rel="noopener"&gt;"red" list&lt;/a&gt; can enter Slovenia without quarantine or negative test result requirement. A person is considered to be coming from a country if he/she has stayed in that country continuously for 14 days before entering Slovenia (which can be proven by a proper certificate).&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from countries on the &lt;a href="https://www.gov.si/en/topics/coronavirus-disease-covid-19/border-crossing/" target="_blank" rel="noopener"&gt;"red" list&lt;/a&gt; are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;48 hours prior to arrival&lt;/strong&gt; (PCR).&lt;/p&gt;&lt;p&gt;All tests must be performed in an EU Member State or Schengen Associated Country by a recognised institution (a list is &lt;a href="https://www.nlzoh.si/en/about-us/news/48-novice2/552-novica-75"&gt;published on the National Laboratory of Health, Environment and Food website&lt;/a&gt;).&lt;/p&gt;&lt;p class="border"&gt;&lt;img src="/static/vaccination-benefits.png" alt="vaccination-benefits" /&gt; &lt;strong&gt; Provisions for vaccinated people&lt;/strong&gt;&lt;br /&gt;&lt;br /&gt;Travellers that have proof of vaccination against COVID-19 are exempt from quarantine. It is required that the vaccination took place in a EU+ country and that the second dose has been administered at least:&lt;/p&gt;&lt;ul&gt;&lt;li class="border"&gt;7 days before arrival for Biontech/Pfizer,&lt;/li&gt;&lt;li class="border"&gt;14 days before arrival for Moderna,&lt;/li&gt;&lt;li class="border"&gt;21 days before arrival for AstraZeneca.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers from countries on the &lt;a href="https://www.gov.si/en/topics/coronavirus-disease-covid-19/border-crossing/" target="_blank" rel="noopener"&gt;"red" list&lt;/a&gt; who do not provide a pre-departure negative COVID-19 test must complete a &lt;strong&gt;10-day quarantine&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.policija.si/enterslovenia/en" target="_blank" rel="noopener"&gt;EnterSlovenia&lt;/a&gt; web application&lt;br /&gt;&lt;a href="https://www.policija.si/eng/newsroom/news-archive/103470-crossing-the-state-border-during-the-coronavirus-epidemic" target="_blank" rel="noopener"&gt;Police Website&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -558,7 +645,13 @@
     <t>&lt;p&gt;&lt;strong&gt;A 10-day quarantine&lt;/strong&gt; rule applies to all travellers arriving in Slovenia from countries with an &lt;a href="https://www.gov.si/en/topics/coronavirus-disease-covid-19/border-crossing/" target="_blank" rel="noopener"&gt;unstable epidemiological situation&lt;/a&gt;,&lt;strong&gt; irrespective of their citizenship or residence&lt;/strong&gt;.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p class="border"&gt;Spain applies the commonly agreed EU "traffic lights" approach to travel restrictions.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers arriving from &lt;a href="https://www.mscbs.gob.es/en/profesionales/saludPublica/ccayes/alertasActual/nCov/spth.htm" target="_blank"&gt;high-risk areas&lt;/a&gt; by air or sea transport are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;As of 30 March, the same requirement is imposed on travellers crossing the &lt;strong&gt;land border between France and Spain&lt;/strong&gt;. Only those working in transportation and cross-border workers will be exempt, along with those who live in the border zone (as long as they remain within a 30-kilometre radius of their home).&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Accepted test: PCR, TMA or other molecular techniques.&lt;/p&gt;&lt;p&gt;Children aged 6 and under are exempted.&lt;/p&gt;&lt;p&gt;This certificate or supporting documentation must be the original, and it must be written in Spanish, English, German or French. &lt;br /&gt;If it is not possible to obtain it in these languages, the certificate or supporting documentation must be accompanied by a translation into Spanish, carried out by an official body.&lt;br /&gt;It can be presented in paper or electronic format.&lt;/p&gt;&lt;p&gt;The document must contain, at least, the following information:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;traveller's name, passport or ID number&lt;/li&gt;&lt;li&gt;test date&lt;/li&gt;&lt;li&gt;identification and contact details of the centre that performs the analysis&lt;/li&gt;&lt;li&gt;the used technique&lt;/li&gt;&lt;li&gt;a negative result&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;The personal identification number (passport/ID number) used to get the QR code must be the same as the identification number that appears on the negative COVID-19 certificate.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;A quarantine is not required.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Specific Rules for Canary Islands&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers to the Canary Islands are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;. Accepted tests are PCR and rapid antigen. If you are travelling from a &lt;a href="https://www.mscbs.gob.es/en/profesionales/saludPublica/ccayes/alertasActual/nCov/spth.htm" target="_blank" rel="noopener"&gt;high-risk country or area&lt;/a&gt;, a negative PCR test presented upon arrival in Spain will be valid.&lt;/p&gt;&lt;p&gt;Also, passengers arriving by air or sea transport may undergo a temperature check, which must be below 37.5 degrees Celsius. Cruising companies can take passengers' temperature before arriving at a Spanish port.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;A form must be completed and signed electronically before your arrival in Spain. You can access the form and sign it via the &lt;a href="https://www.spth.gob.es" target="_blank" rel="noopener"&gt;Spain Travel Health&lt;/a&gt; website or apps for &lt;a href="https://play.google.com/store/apps/details?id=com.atos.spain.th" target="_blank" rel="noopener"&gt;Android &lt;/a&gt;or &lt;a href="https://apps.apple.com/us/app/id1521156190" target="_blank" rel="noopener"&gt;iOs&lt;/a&gt; devices. After you sign it, you will receive a QR code which must be presented upon arrival in Spain (it is only valid in digital formats. However, for justifiable reasons it may be presented in the paper format before embarking). Remember that you must fill in a separate form for each trip and each person. All travellers should complete the form, including children of any age.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.spth.gob.es" target="_blank" rel="noopener"&gt;Spain travel health portal&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.mscbs.gob.es/en/home.htm" target="_blank" rel="noopener"&gt;Spanish Ministry of Health&lt;/a&gt;&lt;br /&gt;Information from &lt;a href="http://aena.es/en/informationcovid19coronavirusairportsandflights.html" target="_blank" rel="noopener"&gt;the largest airport operator in Spain&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.spain.info/en/discover-spain/practical-information-tourists-covid-19-travel-spain/" target="_blank" rel="noopener"&gt;Spain.info&lt;/a&gt;&lt;/p&gt;</t>
+    <t>For COVID-19 border crossing procedures, contact the Police: 00386 1 514 70 01; info.koronavirus@policija.si&lt;br&gt;&lt;a href="https://www.promet.si/portal/en/1traffic-conditions.aspx"&gt;Traffic Informatgion Centre&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.gov.si/en/topics/coronavirus-disease-covid-19/"&gt;Info Coronavirus&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p class="border"&gt;Spain applies the commonly agreed EU "traffic lights" approach to travel restrictions.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers arriving from &lt;a href="https://www.mscbs.gob.es/en/profesionales/saludPublica/ccayes/alertasActual/nCov/spth.htm" target="_blank"&gt;high-risk areas&lt;/a&gt; by air or sea transport are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;As of 30 March, the same requirement is imposed on travellers crossing the &lt;strong&gt;land border between France and Spain&lt;/strong&gt;. Only those working in transportation and cross-border workers will be exempt, along with those who live in the border zone (as long as they remain within a 30-kilometre radius of their home).&lt;/p&gt;&lt;p&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Accepted test: PCR, TMA or other molecular techniques.&lt;/p&gt;&lt;p&gt;Children aged 5 and under are exempted.&lt;/p&gt;&lt;p&gt;This certificate or supporting documentation must be the original, and it must be written in Spanish, English, German or French. &lt;br /&gt;If it is not possible to obtain it in these languages, the certificate or supporting documentation must be accompanied by a translation into Spanish, carried out by an official body.&lt;br /&gt;It can be presented in paper or electronic format.&lt;/p&gt;&lt;p&gt;The document must contain, at least, the following information:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;traveller's name, passport or ID number&lt;/li&gt;&lt;li&gt;test date&lt;/li&gt;&lt;li&gt;identification and contact details of the centre that performs the analysis&lt;/li&gt;&lt;li&gt;the used technique&lt;/li&gt;&lt;li&gt;a negative result&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;The personal identification number (passport/ID number) used to get the QR code must be the same as the identification number that appears on the negative COVID-19 certificate.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;A quarantine is not required.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Specific Rules for Canary Islands&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers to the Canary Islands are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;. Accepted tests are PCR and rapid antigen. If you are travelling from a &lt;a href="https://www.mscbs.gob.es/en/profesionales/saludPublica/ccayes/alertasActual/nCov/spth.htm" target="_blank" rel="noopener"&gt;high-risk country or area&lt;/a&gt;, a negative PCR test presented upon arrival in Spain will be valid.&lt;/p&gt;&lt;p&gt;Also, passengers arriving by air or sea transport may undergo a temperature check, which must be below 37.5 degrees Celsius. Cruising companies can take passengers' temperature before arriving at a Spanish port.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;A form must be completed and signed electronically before your arrival in Spain. You can access the form and sign it via the &lt;a href="https://www.spth.gob.es" target="_blank" rel="noopener"&gt;Spain Travel Health&lt;/a&gt; website or apps for &lt;a href="https://play.google.com/store/apps/details?id=com.atos.spain.th" target="_blank" rel="noopener"&gt;Android &lt;/a&gt;or &lt;a href="https://apps.apple.com/us/app/id1521156190" target="_blank" rel="noopener"&gt;iOs&lt;/a&gt; devices. After you sign it, you will receive a QR code which must be presented upon arrival in Spain (it is only valid in digital formats. However, for justifiable reasons it may be presented in the paper format before embarking). Remember that you must fill in a separate form for each trip and each person. All travellers should complete the form, including children of any age.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.spth.gob.es" target="_blank" rel="noopener"&gt;Spain travel health portal&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.mscbs.gob.es/en/home.htm" target="_blank" rel="noopener"&gt;Spanish Ministry of Health&lt;/a&gt;&lt;br /&gt;Information from &lt;a href="http://aena.es/en/informationcovid19coronavirusairportsandflights.html" target="_blank" rel="noopener"&gt;the largest airport operator in Spain&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.spain.info/en/discover-spain/practical-information-tourists-covid-19-travel-spain/" target="_blank" rel="noopener"&gt;Spain.info&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;All travellers arriving from &lt;a href="https://www.mscbs.gob.es/en/profesionales/saludPublica/ccayes/alertasActual/nCov/spth.htm" target="_blank" rel="noopener"&gt;at risk countries or areas&lt;/a&gt; will have to present&amp;nbsp;an&amp;nbsp;Active Infection Diagnostic Test for SARS-CoV-2 with a negative result,&amp;nbsp;from a PCR test (COVID-19 RT-PCR), &amp;nbsp;a Transcription-Mediated Amplification (TMA) test, or other test based on equivalent molecular techniques.&lt;/p&gt;&lt;p&gt;This certificate or supporting document must be the original, and it must be written in Spanish, English, German or French, and may be presented in paper or electronic format. The document will contain, at least, the following information: traveller's name, passport or ID number, test date, identification and contact details of the centre that performs the analysis, the used technique, and a negative test result. The personal identification number (passport/ID number) that you use to get your QR code must be the same as the identification number that appears on the negative PCR certificate.&amp;nbsp;Children under the age of 6 are exempt of the testing obligation.&lt;/p&gt;&lt;p&gt;The test must have been performed 72 hours before arrival, and it will be checked at sea and air borders. If travellers show symptoms of COVID-19 despite a negative test result, they must undergo further testing. Failure to present the test at arrival will be fined.&lt;/p&gt;&lt;p&gt;At risk areas will be defined based on data provided by the European Centre for Disease Prevention and Control (ECDC).&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.spth.gob.es" target="_blank" rel="noopener"&gt;Spain travel health portal&amp;nbsp;&lt;/a&gt;&lt;/p&gt;&lt;div style="text-align: center; color: #345; padding-top: 10px;"&gt;&lt;/div&gt;</t>
@@ -567,9 +660,15 @@
     <t>&lt;p&gt;Regional governments are allowed to impose additional local mobility restrictions if deemed necessary, such as entry and exit restrictions or travel from and to specific areas. Many regions have such restrictions in place.&lt;/p&gt;&lt;p&gt;In general, it is allowed to transit confined areas, as long as you can provide evidence of your onward journey. Travel for professional or medical purposes is also allowed, however you should always be able to provide evidence. Travel for tourist purpose is not considered essential and should be avoided.&lt;/p&gt;As part of precautions around Easter holidays, interregional traffic is heavily restricted between 26 March and 9 April. &lt;p&gt;To find out more about specific restrictions and exemptions, you should refer to guidance from local authorities.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/home.htm"&gt;Info Coronavirus&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Sweden adopts its own national classification of risk areas, hence travel restrictions for Sweden are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;The Government has decided to extend the general entry ban for foreign citizens who cannot present a negative COVID-19 test result on arrival in Sweden until 31 May 2021.&lt;/p&gt;&lt;p&gt;Citizens from EU Member States and Schengen Associated countries, and their family members, as well as people with Swedish residence permits, are allowed to enter Sweden at the conditions specified hereafter.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers are subject to the requirement for a &lt;strong&gt;pre-departure negative COVID-19 test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;48 hours prior to arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Accepted tests: &lt;strong&gt;antigen, TMA, PCR, LAMP&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Children aged &lt;strong&gt;17 and under&lt;/strong&gt; are exempted.&lt;/p&gt;&lt;p&gt;The following information must appear on the certificate:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;name of the person who has been tested&lt;/li&gt;&lt;li&gt;date/time of the test&lt;/li&gt;&lt;li&gt;type of test&lt;/li&gt;&lt;li&gt;the test result&lt;/li&gt;&lt;li&gt;Issuer of the certificate&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;The information must be clearly stated in Swedish, English, Norwegian or Danish.&lt;/p&gt;&lt;p&gt;Exemptions are available for cross-border workers and some other categories.&lt;/p&gt;&lt;p&gt;If you got tested before your departure for Sweden, you do not have to get tested again in connection with your arrival, but you should still get tested &lt;strong&gt;5 days after your arrival&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;A quarantine is not required.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Airline operators may require passengers to show a health statement but this is not a general requirement for entering Sweden.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.government.se/articles/2020/04/questions-and-answers-about-the-entry-ban-to-sweden/" target="_blank"&gt;Questions and answers about the entry ban to Sweden - Government.se&lt;/a&gt;&lt;strong&gt;&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.krisinformation.se/en/hazards-and-risks/disasters-and-incidents/2020/official-information-on-the-new-coronavirus/travel-restrictions" target="_blank"&gt;International travel restrictions - Krisinformation.se&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;a href="https://www.folkhalsomyndigheten.se/the-public-health-agency-of-sweden/communicable-disease-control/covid-19/"&gt;Info Coronavirus&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>&lt;p class="border"&gt;Switzerland adopts &lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/quarantaene-einreisende.html#1918240392" target="_blank" rel="noopener"&gt;its own national classification of risk areas&lt;/a&gt;, hence travel restrictions for Switzerland are not based on the common "EU Traffic Lights" map.&lt;/p&gt;&lt;p&gt;The Federal Office of Public Health provides a regularly updated &lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/liste.html#858610174" target="_blank" rel="noopener"&gt;list of countries&lt;/a&gt; defined as COVID-19 risk area. If a country is on the list, this includes all of its areas, islands and overseas territories - even if they are not listed separately. Switzerland's neighbouring countries are exempted from this regulation. In the case of these countries, it is not the entire country that is listed, but rather regions.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a coronavirus test required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;All travellers arriving by air, as well as all travellers entering by bus/rail/car who have stayed in a &lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/liste.html#858610174" target="_blank" rel="noopener"&gt;country with an increased risk of infection&lt;/a&gt; in the 10 days before entering Switzerland, are subject to the requirement for a &lt;strong&gt;pre-departure negative PCR test&lt;/strong&gt;.&lt;br /&gt;The test must be taken within &lt;strong&gt;72 hours prior to arrival&lt;/strong&gt;.&lt;br /&gt;Only molecular tests are accepted - the result of a rapid antigen test is not sufficient.&lt;/p&gt;&lt;p&gt;Children aged 12 and under are exempted.&lt;/p&gt;&lt;p&gt;More &lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/quarantaene-einreisende.html#103059051" target="_blank" rel="noopener"&gt;exemptions from the Testing and Quarantine Requirement&lt;/a&gt; are available.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Is a quarantine required?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Travellers who, in the last 10 days before entry into Switzerland, have spent time in a &lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/liste.html#858610174" target="_blank" rel="noopener"&gt;country or area with an increased risk of infection&lt;/a&gt;, must complete a mandatory quarantine and report their arrival in Switzerland to the cantonal authorities.&lt;/p&gt;&lt;p&gt;The &lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/isolation-und-quarantaene.html#996315808" target="_blank" rel="noopener"&gt;quarantine can be shortened&lt;/a&gt; with a negative result to a PCR test taken on day 7. COVID-19 vaccination does not exempt from the mandatory quarantine requirement.&lt;/p&gt;&lt;p&gt;Certain people are &lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/quarantaene-einreisende.html#103059051" target="_blank" rel="noopener"&gt;exempt from the quarantine requirement&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mandatory Travel Documentation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Before your entry to Switzerland, the electronic entry form available at &lt;a href="https://swissplf.admin.ch/" target="_blank" rel="noopener"&gt;swissplf.admin.ch&lt;/a&gt; must be filled out.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Find out more:&lt;br /&gt;&lt;/strong&gt;&lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/quarantaene-einreisende.html#1918240392" target="_blank" rel="noopener"&gt;www.bag.admin.ch&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/quarantaene-einreisende.html#-1306781457" target="_blank" rel="noopener"&gt;What to do after entering Switzerland&lt;/a&gt;&lt;br /&gt;&lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/haeufig-gestellte-fragen.html?faq-url=/en/tests-isolation-and-quarantine/why-do-i-have-go-quarantine-even-though-my-test-was-negative" target="_blank" rel="noopener"&gt;Frequently Asked Questions (FAQs)&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -577,6 +676,9 @@
   </si>
   <si>
     <t>&lt;p&gt;Persons who enter Switzerland and who have stayed in a country or territory with increased covid-infection risks in the past 14 days prior to entry into Switzerland, are obliged to immediately travel directly to their home or another suitable accommodation.&lt;/p&gt;&lt;p&gt;They must stay there permanently for 10 days. The list of countries and territories with increased covid-infection risks is defined and regularly updated in a Federal Act (available in German, French and Italian). For the latest updates on the list, please visit: &lt;a href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/empfehlungen-fuer-reisende/quarantaene-einreisende.html#1918240392"&gt;www.bag.admin.ch&lt;/a&gt;&lt;/p&gt;&lt;p&gt;If a country is on the list, this includes all of its areas, islands and overseas territories&amp;nbsp;&amp;ndash; even if they are not listed separately. Switzerland&amp;rsquo;s neighbouring countries are exempted from this regulation. In the case of these countries, it is not the entire country that is listed, but rather regions. Further information in this regard can be found on the page&amp;nbsp;&lt;a class="icon icon--after icon--external" title="" href="https://www.bag.admin.ch/bag/en/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/faq-kontakte-downloads/haeufig-gestellte-fragen.html?faq-url=/en/isolation-and-quarantine/why-are-only-regions-neighbouring-countries-included-list-countries-and" target="_blank" rel="noopener"&gt;Frequently Asked Questions (FAQs)&lt;/a&gt;.&lt;/p&gt;&lt;p&gt;A negative test result&amp;nbsp;does not exempt you from the mandatory quarantine requirement or shorten the quarantine period.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;Travellers subject to quarantine willl be notified during the flight, on board coaches and at border crossings. They will have to register with the cantonal authorities within two days after arrival, and follow its instructions. Airline and travel companies will be instructed not to transport sick passengers. &lt;br /&gt;For more information on entry and stay in Switzerland, please visit the &lt;a href="https://www.sem.admin.ch/sem/en/home/aktuell/aktuell/faq-einreiseverweigerung.html"&gt;State Secretariat for Migration (SEM) FAQs&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.myswitzerland.com/en-ch/planning/about-switzerland/clean-safe/"&gt;www.myswitzerland.com&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -934,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -989,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1018,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1044,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1070,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1096,10 +1198,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1125,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1151,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1177,10 +1279,10 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1191,25 +1293,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1217,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -1226,16 +1325,19 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1243,25 +1345,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1269,25 +1371,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1295,25 +1397,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1321,28 +1423,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1350,25 +1449,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1376,25 +1475,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1411,16 +1513,16 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1428,28 +1530,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1457,25 +1556,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>79</v>
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1483,25 +1582,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1509,7 +1608,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -1518,16 +1617,19 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1535,28 +1637,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1564,28 +1663,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1593,25 +1689,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1619,25 +1715,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1648,22 +1744,22 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1674,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
@@ -1689,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1700,10 +1796,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
@@ -1718,10 +1814,10 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1729,10 +1825,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>71</v>
@@ -1746,8 +1842,8 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>80</v>
+      <c r="I30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1758,7 +1854,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>70</v>
@@ -1773,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1784,25 +1880,22 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1810,25 +1903,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1836,25 +1929,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="I34" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1862,25 +1958,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
         <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>82</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1888,28 +1987,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1917,25 +2013,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
         <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1943,25 +2039,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1969,25 +2065,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1998,7 +2094,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>70</v>
@@ -2013,10 +2109,10 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2024,10 +2120,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
         <v>70</v>
@@ -2041,11 +2137,8 @@
       <c r="G41">
         <v>11</v>
       </c>
-      <c r="H41" t="s">
-        <v>79</v>
-      </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2053,10 +2146,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>71</v>
@@ -2070,8 +2163,8 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
-        <v>115</v>
+      <c r="H42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2079,10 +2172,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
         <v>70</v>
@@ -2097,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2108,25 +2201,22 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2134,28 +2224,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2163,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2189,25 +2279,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47">
-        <v>10</v>
-      </c>
-      <c r="I47" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2215,28 +2305,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2244,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2270,22 +2357,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>83</v>
       </c>
       <c r="I50" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2293,25 +2386,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="I51" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2319,25 +2415,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2345,28 +2441,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2374,28 +2467,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>11</v>
-      </c>
-      <c r="H54" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2403,25 +2493,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="I55" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2429,25 +2522,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
         <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2455,28 +2551,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2484,25 +2577,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
         <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F58">
         <v>2</v>
       </c>
       <c r="G58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2510,25 +2603,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2536,25 +2629,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
         <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>83</v>
       </c>
       <c r="I60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2562,28 +2658,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
         <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="I61" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2591,25 +2684,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G62">
-        <v>11</v>
-      </c>
-      <c r="H62" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2617,10 +2707,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
         <v>71</v>
@@ -2634,8 +2724,8 @@
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="I63" t="s">
-        <v>132</v>
+      <c r="H63" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2643,10 +2733,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
         <v>70</v>
@@ -2661,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2669,25 +2759,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s">
         <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2698,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
         <v>70</v>
@@ -2713,10 +2803,10 @@
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I66" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2724,10 +2814,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
@@ -2741,8 +2831,11 @@
       <c r="G67">
         <v>11</v>
       </c>
+      <c r="H67" t="s">
+        <v>82</v>
+      </c>
       <c r="I67" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2750,10 +2843,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
         <v>71</v>
@@ -2767,8 +2860,8 @@
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="I68" t="s">
-        <v>137</v>
+      <c r="H68" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2776,10 +2869,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
         <v>70</v>
@@ -2794,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2802,25 +2895,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2831,7 +2924,7 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D71" t="s">
         <v>70</v>
@@ -2846,10 +2939,10 @@
         <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I71" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2857,10 +2950,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -2875,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="I72" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2886,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
         <v>71</v>
@@ -2901,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2909,10 +3002,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
         <v>70</v>
@@ -2927,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2938,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D75" t="s">
         <v>70</v>
@@ -2953,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I75" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2967,7 +3060,7 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D76" t="s">
         <v>70</v>
@@ -2982,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2990,10 +3083,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
         <v>71</v>
@@ -3007,8 +3100,8 @@
       <c r="G77">
         <v>1</v>
       </c>
-      <c r="H77" t="s">
-        <v>80</v>
+      <c r="I77" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3016,10 +3109,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
         <v>70</v>
@@ -3033,11 +3126,8 @@
       <c r="G78">
         <v>10</v>
       </c>
-      <c r="H78" t="s">
-        <v>79</v>
-      </c>
       <c r="I78" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3045,16 +3135,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D79" t="s">
         <v>72</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3063,7 +3153,7 @@
         <v>9</v>
       </c>
       <c r="I79" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3074,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D80" t="s">
         <v>70</v>
@@ -3089,10 +3179,10 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I80" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3100,10 +3190,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s">
         <v>70</v>
@@ -3118,7 +3208,7 @@
         <v>11</v>
       </c>
       <c r="I81" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3126,10 +3216,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D82" t="s">
         <v>71</v>
@@ -3144,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3152,10 +3242,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
         <v>70</v>
@@ -3170,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3178,28 +3268,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E84" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="I84" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3207,25 +3294,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E85" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>11</v>
-      </c>
-      <c r="H85" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="I85" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3233,25 +3320,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="I86" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3259,25 +3349,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
         <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F87">
         <v>2</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3285,28 +3375,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E88" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>79</v>
-      </c>
-      <c r="I88" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3317,22 +3404,22 @@
         <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
         <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F89">
         <v>2</v>
       </c>
       <c r="G89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3340,25 +3427,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E90" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="I90" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3366,25 +3453,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
         <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F91">
         <v>2</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>82</v>
       </c>
       <c r="I91" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3392,28 +3482,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D92" t="s">
         <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
-      </c>
-      <c r="I92" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3421,25 +3508,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G93">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3447,25 +3534,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>82</v>
       </c>
       <c r="I94" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3473,28 +3563,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E95" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>10</v>
-      </c>
-      <c r="H95" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3505,25 +3592,22 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E96" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3531,25 +3615,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D97" t="s">
         <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F97">
         <v>2</v>
       </c>
       <c r="G97">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>83</v>
       </c>
       <c r="I97" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3557,25 +3644,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3583,25 +3670,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3609,28 +3696,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D100" t="s">
         <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F100">
         <v>2</v>
       </c>
       <c r="G100">
-        <v>2</v>
-      </c>
-      <c r="H100" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I100" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3638,25 +3722,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E101" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>11</v>
-      </c>
-      <c r="H101" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="I101" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3664,25 +3748,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E102" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>83</v>
       </c>
       <c r="I102" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3690,28 +3777,25 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D103" t="s">
         <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F103">
         <v>2</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>79</v>
-      </c>
-      <c r="I103" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3719,28 +3803,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3748,28 +3829,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
         <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F105">
         <v>2</v>
       </c>
       <c r="G105">
-        <v>11</v>
-      </c>
-      <c r="H105" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I105" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3777,25 +3855,25 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="D106" t="s">
+        <v>72</v>
       </c>
       <c r="E106" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>6</v>
       </c>
-      <c r="H106" t="s">
-        <v>79</v>
-      </c>
       <c r="I106" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3803,25 +3881,25 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E107" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I107" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3829,28 +3907,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D108" t="s">
         <v>70</v>
       </c>
       <c r="E108" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F108">
         <v>2</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3858,28 +3936,25 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
         <v>70</v>
       </c>
       <c r="E109" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F109">
         <v>2</v>
       </c>
       <c r="G109">
-        <v>2</v>
-      </c>
-      <c r="H109" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="I109" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3890,22 +3965,22 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G110">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3913,25 +3988,25 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E111" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I111" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3939,25 +4014,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E112" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I112" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3968,7 +4043,7 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D113" t="s">
         <v>70</v>
@@ -3983,10 +4058,10 @@
         <v>2</v>
       </c>
       <c r="H113" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I113" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3994,10 +4069,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D114" t="s">
         <v>70</v>
@@ -4012,7 +4087,7 @@
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4020,10 +4095,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D115" t="s">
         <v>71</v>
@@ -4038,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4049,7 +4124,7 @@
         <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D116" t="s">
         <v>70</v>
@@ -4064,7 +4139,10 @@
         <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="I116" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4075,25 +4153,22 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E117" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>2</v>
-      </c>
-      <c r="H117" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="I117" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4101,28 +4176,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D118" t="s">
         <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="G118">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I118" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4130,25 +4205,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I119" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4156,28 +4231,25 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D120" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G120">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>79</v>
-      </c>
-      <c r="I120" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4185,28 +4257,25 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C121" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D121" t="s">
         <v>70</v>
       </c>
       <c r="E121" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F121">
         <v>2</v>
       </c>
       <c r="G121">
-        <v>2</v>
-      </c>
-      <c r="H121" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I121" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4214,25 +4283,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D122" t="s">
         <v>70</v>
       </c>
       <c r="E122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F122">
         <v>2</v>
       </c>
       <c r="G122">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="H122" t="s">
+        <v>83</v>
       </c>
       <c r="I122" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4240,25 +4312,25 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="I123" t="s">
-        <v>180</v>
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4266,25 +4338,25 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D124" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G124">
-        <v>10</v>
-      </c>
-      <c r="H124" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4292,28 +4364,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D125" t="s">
         <v>70</v>
       </c>
       <c r="E125" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F125">
         <v>2</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H125" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I125" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4321,25 +4393,25 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D126" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E126" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>11</v>
-      </c>
-      <c r="H126" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="I126" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4347,25 +4419,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E127" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="I127" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4373,25 +4448,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D128" t="s">
         <v>70</v>
       </c>
       <c r="E128" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F128">
         <v>2</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="I128" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4399,28 +4477,25 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D129" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E129" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H129" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4428,25 +4503,25 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C130" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D130" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E130" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G130">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4454,25 +4529,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E131" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H131" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="I131" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4480,25 +4558,855 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132" t="s">
+        <v>80</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>7</v>
+      </c>
+      <c r="I132" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133" t="s">
+        <v>70</v>
+      </c>
+      <c r="E133" t="s">
+        <v>73</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I133" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" t="s">
+        <v>70</v>
+      </c>
+      <c r="E134" t="s">
+        <v>74</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>11</v>
+      </c>
+      <c r="H134" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" t="s">
+        <v>71</v>
+      </c>
+      <c r="E135" t="s">
+        <v>75</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" t="s">
+        <v>76</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>10</v>
+      </c>
+      <c r="I136" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" t="s">
+        <v>72</v>
+      </c>
+      <c r="E137" t="s">
+        <v>80</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>7</v>
+      </c>
+      <c r="I137" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" t="s">
+        <v>70</v>
+      </c>
+      <c r="E138" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>83</v>
+      </c>
+      <c r="I138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" t="s">
+        <v>70</v>
+      </c>
+      <c r="E139" t="s">
+        <v>74</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>11</v>
+      </c>
+      <c r="H139" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140" t="s">
+        <v>71</v>
+      </c>
+      <c r="E140" t="s">
+        <v>75</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" t="s">
+        <v>76</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>10</v>
+      </c>
+      <c r="H141" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" t="s">
+        <v>72</v>
+      </c>
+      <c r="E142" t="s">
+        <v>80</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>7</v>
+      </c>
+      <c r="I142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" t="s">
+        <v>73</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143" t="s">
+        <v>82</v>
+      </c>
+      <c r="I143" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" t="s">
+        <v>66</v>
+      </c>
+      <c r="D144" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" t="s">
+        <v>74</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <v>11</v>
+      </c>
+      <c r="H144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I144" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" t="s">
+        <v>71</v>
+      </c>
+      <c r="E145" t="s">
+        <v>75</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" t="s">
+        <v>66</v>
+      </c>
+      <c r="D146" t="s">
+        <v>70</v>
+      </c>
+      <c r="E146" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>10</v>
+      </c>
+      <c r="H146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>66</v>
+      </c>
+      <c r="D147" t="s">
+        <v>72</v>
+      </c>
+      <c r="E147" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>6</v>
+      </c>
+      <c r="I147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148" t="s">
+        <v>80</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>7</v>
+      </c>
+      <c r="I148" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>67</v>
+      </c>
+      <c r="D149" t="s">
+        <v>70</v>
+      </c>
+      <c r="E149" t="s">
+        <v>73</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>82</v>
+      </c>
+      <c r="I149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>67</v>
+      </c>
+      <c r="D150" t="s">
+        <v>70</v>
+      </c>
+      <c r="E150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>11</v>
+      </c>
+      <c r="I150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151" t="s">
+        <v>67</v>
+      </c>
+      <c r="D151" t="s">
+        <v>71</v>
+      </c>
+      <c r="E151" t="s">
+        <v>75</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152" t="s">
+        <v>70</v>
+      </c>
+      <c r="E152" t="s">
+        <v>76</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>10</v>
+      </c>
+      <c r="H152" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>67</v>
+      </c>
+      <c r="D153" t="s">
+        <v>72</v>
+      </c>
+      <c r="E153" t="s">
+        <v>80</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>7</v>
+      </c>
+      <c r="I153" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>70</v>
+      </c>
+      <c r="E154" t="s">
+        <v>73</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+      <c r="H154" t="s">
+        <v>83</v>
+      </c>
+      <c r="I154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>70</v>
+      </c>
+      <c r="E155" t="s">
+        <v>74</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>11</v>
+      </c>
+      <c r="H155" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>71</v>
+      </c>
+      <c r="E156" t="s">
+        <v>75</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>70</v>
+      </c>
+      <c r="E157" t="s">
+        <v>76</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>10</v>
+      </c>
+      <c r="H157" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>72</v>
+      </c>
+      <c r="E158" t="s">
+        <v>80</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>7</v>
+      </c>
+      <c r="I158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" t="s">
+        <v>70</v>
+      </c>
+      <c r="E159" t="s">
+        <v>73</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159" t="s">
+        <v>82</v>
+      </c>
+      <c r="I159" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
         <v>38</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C160" t="s">
         <v>69</v>
       </c>
-      <c r="D132" t="s">
-        <v>70</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="D160" t="s">
+        <v>70</v>
+      </c>
+      <c r="E160" t="s">
+        <v>74</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>11</v>
+      </c>
+      <c r="I160" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" t="s">
+        <v>71</v>
+      </c>
+      <c r="E161" t="s">
+        <v>75</v>
+      </c>
+      <c r="F161">
+        <v>4</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" t="s">
+        <v>70</v>
+      </c>
+      <c r="E162" t="s">
         <v>76</v>
       </c>
-      <c r="F132">
-        <v>2</v>
-      </c>
-      <c r="G132">
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
         <v>10</v>
       </c>
-      <c r="I132" t="s">
-        <v>184</v>
+      <c r="I162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>69</v>
+      </c>
+      <c r="D163" t="s">
+        <v>72</v>
+      </c>
+      <c r="E163" t="s">
+        <v>77</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>5</v>
+      </c>
+      <c r="I163" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
